--- a/tests/Feature/config/otp_zero.xlsx
+++ b/tests/Feature/config/otp_zero.xlsx
@@ -148,63 +148,63 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SalaryPercent is: 2000 transfer add 2000 to otp.2023.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">SalaryPercent is: 24000 transfer add 24000 to otp.2023.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2024.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2024.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2025.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2025.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2026.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2026.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2027.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2027.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2028.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2028.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2029.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2029.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2030.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2030.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2031.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2031.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2032.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2032.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2033.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2033.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2034.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2034.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2035.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2035.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2036.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2036.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Percent is: 2000 transfer add 2000 to otp.2037.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Percent is: 24000 transfer add 24000 to otp.2037.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
@@ -224,72 +224,72 @@
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0OTP fra 2038, -1/14 av formuen fra pensjonsåret Asset rule Divisor is: 61429 new rule: 1/13 transfer 61429 to income.2038.income.amount reduce otp.2038 by 61429
+Using previous value: 0OTP fra 2038, -1/14 av formuen fra pensjonsåret Asset rule Divisor is: 344286 new rule: 1/13 transfer 344286 to income.2038.income.amount reduce otp.2038 by 344286
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61429 new rule: 1/12 transfer 61429 to income.2039.income.amount reduce otp.2039 by 61429
+Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/12 transfer 344286 to income.2039.income.amount reduce otp.2039 by 344286
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61429 new rule: 1/11 transfer 61429 to income.2040.income.amount reduce otp.2040 by 61429
+Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/11 transfer 344286 to income.2040.income.amount reduce otp.2040 by 344286
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61428 new rule: 1/10 transfer 61428 to income.2041.income.amount reduce otp.2041 by 61428
+Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/10 transfer 344286 to income.2041.income.amount reduce otp.2041 by 344286
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61429 new rule: 1/9 transfer 61429 to income.2042.income.amount reduce otp.2042 by 61429
+Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/9 transfer 344286 to income.2042.income.amount reduce otp.2042 by 344286
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61428 new rule: 1/8 transfer 61428 to income.2043.income.amount reduce otp.2043 by 61428
+Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/8 transfer 344286 to income.2043.income.amount reduce otp.2043 by 344286
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61429 new rule: 1/7 transfer 61429 to income.2044.income.amount reduce otp.2044 by 61429
+Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/7 transfer 344286 to income.2044.income.amount reduce otp.2044 by 344286
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61428 new rule: 1/6 transfer 61428 to income.2045.income.amount reduce otp.2045 by 61428
+Using previous value: 0 Asset rule Divisor is: 344285 new rule: 1/6 transfer 344285 to income.2045.income.amount reduce otp.2045 by 344285
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61429 new rule: 1/5 transfer 61429 to income.2046.income.amount reduce otp.2046 by 61429
+Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/5 transfer 344286 to income.2046.income.amount reduce otp.2046 by 344286
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61428 new rule: 1/4 transfer 61428 to income.2047.income.amount reduce otp.2047 by 61428
+Using previous value: 0 Asset rule Divisor is: 344285 new rule: 1/4 transfer 344285 to income.2047.income.amount reduce otp.2047 by 344285
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61429 new rule: 1/3 transfer 61429 to income.2048.income.amount reduce otp.2048 by 61429
+Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/3 transfer 344286 to income.2048.income.amount reduce otp.2048 by 344286
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61428 new rule: 1/2 transfer 61428 to income.2049.income.amount reduce otp.2049 by 61428
+Using previous value: 0 Asset rule Divisor is: 344285 new rule: 1/2 transfer 344285 to income.2049.income.amount reduce otp.2049 by 344285
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61429 new rule: 1/1 transfer 61429 to income.2050.income.amount reduce otp.2050 by 61429
+Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/1 transfer 344286 to income.2050.income.amount reduce otp.2050 by 344286
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 61428 new rule:  transfer 61428 to income.2051.income.amount reduce otp.2051 by 61428
+Using previous value: 0 Asset rule Divisor is: 344285 new rule:  transfer 344285 to income.2051.income.amount reduce otp.2051 by 344285
 </t>
   </si>
   <si>
@@ -712,19 +712,19 @@
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -3202,18 +3202,18 @@
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>524000</v>
+        <v>788000</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
-        <v>419200.0</v>
+        <v>630400.0</v>
       </c>
       <c r="S38" s="9">
         <v>0.01</v>
@@ -3222,29 +3222,29 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="8">
-        <v>15808.0</v>
+        <v>233696.0</v>
       </c>
       <c r="V38" s="8">
-        <v>524000</v>
+        <v>788000</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y38" s="8">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z38" s="8">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA38" s="7">
         <v>0.0</v>
       </c>
       <c r="AB38" s="7">
-        <v>40960.0</v>
+        <v>271520.0</v>
       </c>
       <c r="AC38" s="9">
-        <v>0.67191601049869</v>
+        <v>0.53081013450109</v>
       </c>
       <c r="AD38" s="7"/>
     </row>
@@ -3278,18 +3278,18 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>548000</v>
+        <v>1076000</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>438400.0</v>
+        <v>860800.0</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
@@ -3298,29 +3298,29 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>15616.0</v>
+        <v>231392.0</v>
       </c>
       <c r="V39" s="1">
-        <v>548000</v>
+        <v>1076000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y39" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z39" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA39">
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>41920.0</v>
+        <v>283040.0</v>
       </c>
       <c r="AC39" s="2">
-        <v>0.67700258397933</v>
+        <v>0.54114408075864</v>
       </c>
       <c r="AD39"/>
     </row>
@@ -3354,18 +3354,18 @@
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>572000</v>
+        <v>1364000</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>457600.0</v>
+        <v>1091200.0</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
@@ -3374,29 +3374,29 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>15424.0</v>
+        <v>229088.0</v>
       </c>
       <c r="V40" s="11">
-        <v>572000</v>
+        <v>1364000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y40" s="11">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z40" s="11">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>42880.0</v>
+        <v>294560.0</v>
       </c>
       <c r="AC40" s="12">
-        <v>0.68193384223919</v>
+        <v>0.55103262496259</v>
       </c>
       <c r="AD40" s="10"/>
     </row>
@@ -3430,18 +3430,18 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>596000</v>
+        <v>1652000</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>476800.0</v>
+        <v>1321600.0</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
@@ -3450,29 +3450,29 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>15232.0</v>
+        <v>226784.0</v>
       </c>
       <c r="V41" s="1">
-        <v>596000</v>
+        <v>1652000</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y41" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z41" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>43840.0</v>
+        <v>306080.0</v>
       </c>
       <c r="AC41" s="2">
-        <v>0.68671679197995</v>
+        <v>0.5605039554644</v>
       </c>
       <c r="AD41"/>
     </row>
@@ -3506,18 +3506,18 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>620000</v>
+        <v>1940000</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>496000.0</v>
+        <v>1552000.0</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
@@ -3526,29 +3526,29 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>15040.0</v>
+        <v>224480.0</v>
       </c>
       <c r="V42" s="1">
-        <v>620000</v>
+        <v>1940000</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y42" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z42" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>44800.0</v>
+        <v>317600.0</v>
       </c>
       <c r="AC42" s="2">
-        <v>0.69135802469136</v>
+        <v>0.56958393113343</v>
       </c>
       <c r="AD42"/>
     </row>
@@ -3582,49 +3582,49 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>644000</v>
+        <v>2228000</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>515200.0</v>
+        <v>1782400.0</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
       </c>
       <c r="T43" s="1">
-        <v>0.0</v>
+        <v>824.0</v>
       </c>
       <c r="U43" s="6">
-        <v>14848.0</v>
+        <v>222176.0</v>
       </c>
       <c r="V43" s="1">
-        <v>644000</v>
+        <v>2228000</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y43" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z43" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>45760.0</v>
+        <v>329120.0</v>
       </c>
       <c r="AC43" s="2">
-        <v>0.69586374695864</v>
+        <v>0.57829631712117</v>
       </c>
       <c r="AD43"/>
     </row>
@@ -3658,49 +3658,49 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>668000</v>
+        <v>2516000</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>534400.0</v>
+        <v>2012800.0</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
       </c>
       <c r="T44" s="1">
-        <v>0.0</v>
+        <v>3128.0</v>
       </c>
       <c r="U44" s="6">
-        <v>14656.0</v>
+        <v>219872.0</v>
       </c>
       <c r="V44" s="1">
-        <v>668000</v>
+        <v>2516000</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y44" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z44" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>46720.0</v>
+        <v>340640.0</v>
       </c>
       <c r="AC44" s="2">
-        <v>0.70023980815348</v>
+        <v>0.58666299255993</v>
       </c>
       <c r="AD44"/>
     </row>
@@ -3734,49 +3734,49 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>692000</v>
+        <v>2804000</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>553600.0</v>
+        <v>2243200.0</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
       </c>
       <c r="T45" s="1">
-        <v>0.0</v>
+        <v>5432.0</v>
       </c>
       <c r="U45" s="6">
-        <v>14464.0</v>
+        <v>217568.0</v>
       </c>
       <c r="V45" s="1">
-        <v>692000</v>
+        <v>2804000</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y45" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z45" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>47680.0</v>
+        <v>352160.0</v>
       </c>
       <c r="AC45" s="2">
-        <v>0.70449172576832</v>
+        <v>0.59470413401783</v>
       </c>
       <c r="AD45"/>
     </row>
@@ -3810,49 +3810,49 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>716000</v>
+        <v>3092000</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>572800.0</v>
+        <v>2473600.0</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
       </c>
       <c r="T46" s="1">
-        <v>0.0</v>
+        <v>7736.0</v>
       </c>
       <c r="U46" s="6">
-        <v>14272.0</v>
+        <v>215264.0</v>
       </c>
       <c r="V46" s="1">
-        <v>716000</v>
+        <v>3092000</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y46" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z46" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>48640.0</v>
+        <v>363680.0</v>
       </c>
       <c r="AC46" s="2">
-        <v>0.70862470862471</v>
+        <v>0.60243837794858</v>
       </c>
       <c r="AD46"/>
     </row>
@@ -3886,49 +3886,49 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>740000</v>
+        <v>3380000</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>592000.0</v>
+        <v>2704000.0</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
       </c>
       <c r="T47" s="1">
-        <v>0.0</v>
+        <v>10040.0</v>
       </c>
       <c r="U47" s="6">
-        <v>14080.0</v>
+        <v>212960.0</v>
       </c>
       <c r="V47" s="1">
-        <v>740000</v>
+        <v>3380000</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y47" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z47" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>49600.0</v>
+        <v>375200.0</v>
       </c>
       <c r="AC47" s="2">
-        <v>0.71264367816092</v>
+        <v>0.60988296488947</v>
       </c>
       <c r="AD47"/>
     </row>
@@ -3962,49 +3962,49 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>764000</v>
+        <v>3668000</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>611200.0</v>
+        <v>2934400.0</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
       </c>
       <c r="T48" s="1">
-        <v>0.0</v>
+        <v>12344.0</v>
       </c>
       <c r="U48" s="6">
-        <v>13888.0</v>
+        <v>210656.0</v>
       </c>
       <c r="V48" s="1">
-        <v>764000</v>
+        <v>3668000</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y48" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z48" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>50560.0</v>
+        <v>386720.0</v>
       </c>
       <c r="AC48" s="2">
-        <v>0.71655328798186</v>
+        <v>0.61705386775594</v>
       </c>
       <c r="AD48"/>
     </row>
@@ -4038,49 +4038,49 @@
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>788000</v>
+        <v>3956000</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>630400.0</v>
+        <v>3164800.0</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
       </c>
       <c r="T49" s="1">
-        <v>0.0</v>
+        <v>14648.0</v>
       </c>
       <c r="U49" s="6">
-        <v>13696.0</v>
+        <v>208352.0</v>
       </c>
       <c r="V49" s="1">
-        <v>788000</v>
+        <v>3956000</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y49" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z49" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>51520.0</v>
+        <v>398240.0</v>
       </c>
       <c r="AC49" s="2">
-        <v>0.72035794183445</v>
+        <v>0.62396590624217</v>
       </c>
       <c r="AD49"/>
     </row>
@@ -4114,49 +4114,49 @@
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>812000</v>
+        <v>4244000</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>649600.0</v>
+        <v>3395200.0</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
       </c>
       <c r="T50" s="1">
-        <v>0.0</v>
+        <v>16952.0</v>
       </c>
       <c r="U50" s="6">
-        <v>13504.0</v>
+        <v>206048.0</v>
       </c>
       <c r="V50" s="1">
-        <v>812000</v>
+        <v>4244000</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y50" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z50" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>52480.0</v>
+        <v>409760.0</v>
       </c>
       <c r="AC50" s="2">
-        <v>0.72406181015453</v>
+        <v>0.63063284905196</v>
       </c>
       <c r="AD50"/>
     </row>
@@ -4190,49 +4190,49 @@
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>836000</v>
+        <v>4532000</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>668800.0</v>
+        <v>3625600.0</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
       </c>
       <c r="T51" s="1">
-        <v>0.0</v>
+        <v>19256.0</v>
       </c>
       <c r="U51" s="6">
-        <v>13312.0</v>
+        <v>203744.0</v>
       </c>
       <c r="V51" s="1">
-        <v>836000</v>
+        <v>4532000</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y51" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z51" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>53440.0</v>
+        <v>421280.0</v>
       </c>
       <c r="AC51" s="2">
-        <v>0.7276688453159</v>
+        <v>0.63706750544399</v>
       </c>
       <c r="AD51"/>
     </row>
@@ -4266,49 +4266,49 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>860000</v>
+        <v>4820000</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>688000.0</v>
+        <v>3856000.0</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
       </c>
       <c r="T52" s="1">
-        <v>0.0</v>
+        <v>21560.0</v>
       </c>
       <c r="U52" s="6">
-        <v>13120.0</v>
+        <v>201440.0</v>
       </c>
       <c r="V52" s="1">
-        <v>860000</v>
+        <v>4820000</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y52" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z52" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>54400.0</v>
+        <v>432800.0</v>
       </c>
       <c r="AC52" s="2">
-        <v>0.73118279569892</v>
+        <v>0.64328180737218</v>
       </c>
       <c r="AD52"/>
     </row>
@@ -4320,7 +4320,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -4349,23 +4349,23 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>798571.0</v>
+        <v>4475714.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>638856.8</v>
+        <v>3580571.2</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>0.0</v>
+        <v>18805.712</v>
       </c>
       <c r="U53" s="13">
-        <v>-6388.568</v>
+        <v>-35805.712</v>
       </c>
       <c r="V53" s="13">
-        <v>798571.0</v>
+        <v>4475714.0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -4381,10 +4381,10 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>31943.0</v>
+        <v>179029.0</v>
       </c>
       <c r="AC53" s="14">
-        <v>1.0000050089472</v>
+        <v>1.0000024577084</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -4396,7 +4396,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -4425,23 +4425,23 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>737142.0</v>
+        <v>4131428.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>589713.6</v>
+        <v>3305142.4</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>0.0</v>
+        <v>16051.424</v>
       </c>
       <c r="U54" s="6">
-        <v>-5897.136</v>
+        <v>-33051.424</v>
       </c>
       <c r="V54" s="1">
-        <v>737142.0</v>
+        <v>4131428.0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -4457,10 +4457,10 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>29486.0</v>
+        <v>165257.0</v>
       </c>
       <c r="AC54" s="2">
-        <v>1.0000108527258</v>
+        <v>0.99999927385882</v>
       </c>
       <c r="AD54"/>
     </row>
@@ -4472,7 +4472,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -4501,23 +4501,23 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>675713.0</v>
+        <v>3787142.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>540570.4</v>
+        <v>3029713.6</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>0.0</v>
+        <v>13297.136</v>
       </c>
       <c r="U55" s="6">
-        <v>-5405.704</v>
+        <v>-30297.136</v>
       </c>
       <c r="V55" s="1">
-        <v>675713.0</v>
+        <v>3787142.0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -4533,10 +4533,10 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>27029.0</v>
+        <v>151486.0</v>
       </c>
       <c r="AC55" s="2">
-        <v>1.000017759019</v>
+        <v>1.0000021124109</v>
       </c>
       <c r="AD55"/>
     </row>
@@ -4548,7 +4548,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>61428.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -4577,23 +4577,23 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>614285.0</v>
+        <v>3442856.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>491428.0</v>
+        <v>2754284.8</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>0.0</v>
+        <v>10542.848</v>
       </c>
       <c r="U56" s="6">
-        <v>-4914.28</v>
+        <v>-27542.848</v>
       </c>
       <c r="V56" s="1">
-        <v>614285.0</v>
+        <v>3442856.0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -4609,10 +4609,10 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>24571.0</v>
+        <v>137714.0</v>
       </c>
       <c r="AC56" s="2">
-        <v>0.9999837209113</v>
+        <v>0.99999825726083</v>
       </c>
       <c r="AD56"/>
     </row>
@@ -4624,7 +4624,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -4653,23 +4653,23 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>552856.0</v>
+        <v>3098570.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>442284.8</v>
+        <v>2478856.0</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>0.0</v>
+        <v>7788.56</v>
       </c>
       <c r="U57" s="13">
-        <v>-4422.848</v>
+        <v>-24788.56</v>
       </c>
       <c r="V57" s="13">
-        <v>552856.0</v>
+        <v>3098570.0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -4685,10 +4685,10 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>22114.0</v>
+        <v>123943.0</v>
       </c>
       <c r="AC57" s="14">
-        <v>0.99998914726439</v>
+        <v>1.0000016136476</v>
       </c>
       <c r="AD57" s="3"/>
     </row>
@@ -4700,7 +4700,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>61428.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -4729,23 +4729,23 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>491428.0</v>
+        <v>2754284.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>393142.4</v>
+        <v>2203427.2</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>0.0</v>
+        <v>5034.272</v>
       </c>
       <c r="U58" s="6">
-        <v>-3931.424</v>
+        <v>-22034.272</v>
       </c>
       <c r="V58" s="1">
-        <v>491428.0</v>
+        <v>2754284.0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -4761,10 +4761,10 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>19657.0</v>
+        <v>110171.0</v>
       </c>
       <c r="AC58" s="2">
-        <v>0.99999389534174</v>
+        <v>0.99999673236311</v>
       </c>
       <c r="AD58"/>
     </row>
@@ -4776,7 +4776,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -4805,23 +4805,23 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>429999.0</v>
+        <v>2409998.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>343999.2</v>
+        <v>1927998.4</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>0.0</v>
+        <v>2279.984</v>
       </c>
       <c r="U59" s="6">
-        <v>-3439.992</v>
+        <v>-19279.984</v>
       </c>
       <c r="V59" s="1">
-        <v>429999.0</v>
+        <v>2409998.0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -4837,10 +4837,10 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>17200.0</v>
+        <v>96400.0</v>
       </c>
       <c r="AC59" s="2">
-        <v>1.0000023255868</v>
+        <v>1.0000008298762</v>
       </c>
       <c r="AD59"/>
     </row>
@@ -4852,7 +4852,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -4881,11 +4881,11 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>368571.0</v>
+        <v>2065713.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>294856.8</v>
+        <v>1652570.4</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
@@ -4894,10 +4894,10 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-2948.568</v>
+        <v>-16525.704</v>
       </c>
       <c r="V60" s="1">
-        <v>368571.0</v>
+        <v>2065713.0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -4913,10 +4913,10 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>14743.0</v>
+        <v>82629.0</v>
       </c>
       <c r="AC60" s="2">
-        <v>1.0000108527258</v>
+        <v>1.0000058091322</v>
       </c>
       <c r="AD60"/>
     </row>
@@ -4928,7 +4928,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -4957,11 +4957,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>307142.0</v>
+        <v>1721427.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>245713.6</v>
+        <v>1377141.6</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
@@ -4970,10 +4970,10 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-2457.136</v>
+        <v>-13771.416</v>
       </c>
       <c r="V61" s="1">
-        <v>307142.0</v>
+        <v>1721427.0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -4989,10 +4989,10 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>12286.0</v>
+        <v>68857.0</v>
       </c>
       <c r="AC61" s="2">
-        <v>1.0000260465843</v>
+        <v>0.99999883817321</v>
       </c>
       <c r="AD61"/>
     </row>
@@ -5004,7 +5004,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -5033,11 +5033,11 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>245714.0</v>
+        <v>1377142.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>196571.2</v>
+        <v>1101713.6</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
@@ -5046,10 +5046,10 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-1965.712</v>
+        <v>-11017.136</v>
       </c>
       <c r="V62" s="1">
-        <v>245714.0</v>
+        <v>1377142.0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -5065,10 +5065,10 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>9829.0</v>
+        <v>55086.0</v>
       </c>
       <c r="AC62" s="2">
-        <v>1.0000447674939</v>
+        <v>1.0000058091322</v>
       </c>
       <c r="AD62"/>
     </row>
@@ -5080,7 +5080,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -5109,11 +5109,11 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>184285.0</v>
+        <v>1032856.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>147428.0</v>
+        <v>826284.8</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
@@ -5122,10 +5122,10 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-1474.28</v>
+        <v>-8262.848</v>
       </c>
       <c r="V63" s="1">
-        <v>184285.0</v>
+        <v>1032856.0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -5141,10 +5141,10 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>7371.0</v>
+        <v>41314.0</v>
       </c>
       <c r="AC63" s="2">
-        <v>0.99994573622378</v>
+        <v>0.99999419086494</v>
       </c>
       <c r="AD63"/>
     </row>
@@ -5156,7 +5156,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -5185,11 +5185,11 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>122857.0</v>
+        <v>688571.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>98285.6</v>
+        <v>550856.8</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
@@ -5198,10 +5198,10 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-982.856</v>
+        <v>-5508.568</v>
       </c>
       <c r="V64" s="1">
-        <v>122857.0</v>
+        <v>688571.0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -5217,10 +5217,10 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>4914.0</v>
+        <v>27543.0</v>
       </c>
       <c r="AC64" s="2">
-        <v>0.99994302318956</v>
+        <v>1.0000058091322</v>
       </c>
       <c r="AD64"/>
     </row>
@@ -5232,7 +5232,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -5261,11 +5261,11 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>49142.4</v>
+        <v>275428.0</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
@@ -5274,10 +5274,10 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-491.424</v>
+        <v>-2754.28</v>
       </c>
       <c r="V65" s="1">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -5293,10 +5293,10 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>2457.0</v>
+        <v>13771.0</v>
       </c>
       <c r="AC65" s="2">
-        <v>0.99995116233639</v>
+        <v>0.99997095429659</v>
       </c>
       <c r="AD65"/>
     </row>
@@ -5308,7 +5308,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -6069,7 +6069,7 @@
     <col min="10" max="10" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -6081,7 +6081,7 @@
     <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -8429,7 +8429,7 @@
         <v>0.5</v>
       </c>
       <c r="M38" s="8">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N38" s="9">
         <v>0.5</v>
@@ -8449,24 +8449,24 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="8">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V38" s="8">
         <v>0</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y38" s="8">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="7">
         <v>0.0</v>
       </c>
       <c r="AB38" s="7">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
@@ -8497,7 +8497,7 @@
         <v>0.5</v>
       </c>
       <c r="M39" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N39" s="2">
         <v>0.5</v>
@@ -8517,24 +8517,24 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V39" s="1">
         <v>0</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y39" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39">
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
@@ -8565,7 +8565,7 @@
         <v>0.5</v>
       </c>
       <c r="M40" s="11">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N40" s="12">
         <v>0.5</v>
@@ -8585,24 +8585,24 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V40" s="11">
         <v>0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y40" s="11">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
@@ -8633,7 +8633,7 @@
         <v>0.5</v>
       </c>
       <c r="M41" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N41" s="2">
         <v>0.5</v>
@@ -8653,24 +8653,24 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V41" s="1">
         <v>0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y41" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41">
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
@@ -8701,7 +8701,7 @@
         <v>0.5</v>
       </c>
       <c r="M42" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N42" s="2">
         <v>0.5</v>
@@ -8721,24 +8721,24 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V42" s="1">
         <v>0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y42" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42">
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
@@ -8769,7 +8769,7 @@
         <v>0.5</v>
       </c>
       <c r="M43" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N43" s="2">
         <v>0.5</v>
@@ -8789,24 +8789,24 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V43" s="1">
         <v>0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y43" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43">
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
@@ -8837,7 +8837,7 @@
         <v>0.5</v>
       </c>
       <c r="M44" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N44" s="2">
         <v>0.5</v>
@@ -8857,24 +8857,24 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V44" s="1">
         <v>0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y44" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44">
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
@@ -8905,7 +8905,7 @@
         <v>0.5</v>
       </c>
       <c r="M45" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N45" s="2">
         <v>0.5</v>
@@ -8925,24 +8925,24 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V45" s="1">
         <v>0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y45" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
@@ -8973,7 +8973,7 @@
         <v>0.5</v>
       </c>
       <c r="M46" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N46" s="2">
         <v>0.5</v>
@@ -8993,24 +8993,24 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V46" s="1">
         <v>0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y46" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46">
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
@@ -9041,7 +9041,7 @@
         <v>0.5</v>
       </c>
       <c r="M47" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N47" s="2">
         <v>0.5</v>
@@ -9061,24 +9061,24 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V47" s="1">
         <v>0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y47" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47">
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
@@ -9109,7 +9109,7 @@
         <v>0.5</v>
       </c>
       <c r="M48" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N48" s="2">
         <v>0.5</v>
@@ -9129,24 +9129,24 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V48" s="1">
         <v>0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y48" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48">
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
@@ -9177,7 +9177,7 @@
         <v>0.5</v>
       </c>
       <c r="M49" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N49" s="2">
         <v>0.5</v>
@@ -9197,24 +9197,24 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V49" s="1">
         <v>0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y49" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
@@ -9245,7 +9245,7 @@
         <v>0.5</v>
       </c>
       <c r="M50" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N50" s="2">
         <v>0.5</v>
@@ -9265,24 +9265,24 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V50" s="1">
         <v>0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y50" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
@@ -9313,7 +9313,7 @@
         <v>0.5</v>
       </c>
       <c r="M51" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N51" s="2">
         <v>0.5</v>
@@ -9333,24 +9333,24 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V51" s="1">
         <v>0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y51" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
@@ -9381,7 +9381,7 @@
         <v>0.5</v>
       </c>
       <c r="M52" s="1">
-        <v>-20000.0</v>
+        <v>-240000.0</v>
       </c>
       <c r="N52" s="2">
         <v>0.5</v>
@@ -9401,24 +9401,24 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="V52" s="1">
         <v>0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>40000</v>
+        <v>480000</v>
       </c>
       <c r="Y52" s="1">
-        <v>200000</v>
+        <v>2400000</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52">
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>20000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
@@ -9433,7 +9433,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -9501,7 +9501,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -9569,7 +9569,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -9637,7 +9637,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>61428.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -9705,7 +9705,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -9773,7 +9773,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>61428.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -9841,7 +9841,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -9909,7 +9909,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -9977,7 +9977,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -10045,7 +10045,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -10113,7 +10113,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -10181,7 +10181,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -10249,7 +10249,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>61429.0</v>
+        <v>344286.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -10317,7 +10317,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -11053,11 +11053,11 @@
     <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -11239,23 +11239,23 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>524000</v>
+        <v>788000</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>419200.0</v>
+        <v>630400.0</v>
       </c>
       <c r="S6" s="2">
         <v>0.01</v>
       </c>
       <c r="T6" s="1">
-        <v>4192.0</v>
+        <v>6304.0</v>
       </c>
       <c r="U6" s="6">
-        <v>-4192.0</v>
+        <v>-6304.0</v>
       </c>
       <c r="V6" s="1">
-        <v>524000</v>
+        <v>788000</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
@@ -11269,7 +11269,7 @@
         <v>0.0</v>
       </c>
       <c r="AB6">
-        <v>20960.0</v>
+        <v>31520.0</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s">
@@ -11305,23 +11305,23 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>548000</v>
+        <v>1076000</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>438400.0</v>
+        <v>860800.0</v>
       </c>
       <c r="S7" s="2">
         <v>0.01</v>
       </c>
       <c r="T7" s="1">
-        <v>4384.0</v>
+        <v>8608.0</v>
       </c>
       <c r="U7" s="6">
-        <v>-4384.0</v>
+        <v>-8608.0</v>
       </c>
       <c r="V7" s="1">
-        <v>548000</v>
+        <v>1076000</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
@@ -11335,7 +11335,7 @@
         <v>0.0</v>
       </c>
       <c r="AB7">
-        <v>21920.0</v>
+        <v>43040.0</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
@@ -11371,23 +11371,23 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>572000</v>
+        <v>1364000</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>457600.0</v>
+        <v>1091200.0</v>
       </c>
       <c r="S8" s="2">
         <v>0.01</v>
       </c>
       <c r="T8" s="1">
-        <v>4576.0</v>
+        <v>10912.0</v>
       </c>
       <c r="U8" s="6">
-        <v>-4576.0</v>
+        <v>-10912.0</v>
       </c>
       <c r="V8" s="1">
-        <v>572000</v>
+        <v>1364000</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
@@ -11401,7 +11401,7 @@
         <v>0.0</v>
       </c>
       <c r="AB8">
-        <v>22880.0</v>
+        <v>54560.0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
@@ -11437,23 +11437,23 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>596000</v>
+        <v>1652000</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>476800.0</v>
+        <v>1321600.0</v>
       </c>
       <c r="S9" s="2">
         <v>0.01</v>
       </c>
       <c r="T9" s="1">
-        <v>4768.0</v>
+        <v>13216.0</v>
       </c>
       <c r="U9" s="6">
-        <v>-4768.0</v>
+        <v>-13216.0</v>
       </c>
       <c r="V9" s="1">
-        <v>596000</v>
+        <v>1652000</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
@@ -11467,7 +11467,7 @@
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>23840.0</v>
+        <v>66080.0</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
@@ -11503,23 +11503,23 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>620000</v>
+        <v>1940000</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>496000.0</v>
+        <v>1552000.0</v>
       </c>
       <c r="S10" s="2">
         <v>0.01</v>
       </c>
       <c r="T10" s="1">
-        <v>4960.0</v>
+        <v>15520.0</v>
       </c>
       <c r="U10" s="6">
-        <v>-4960.0</v>
+        <v>-15520.0</v>
       </c>
       <c r="V10" s="1">
-        <v>620000</v>
+        <v>1940000</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
@@ -11533,7 +11533,7 @@
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>24800.0</v>
+        <v>77600.0</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
@@ -11569,23 +11569,23 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>644000</v>
+        <v>2228000</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>515200.0</v>
+        <v>1782400.0</v>
       </c>
       <c r="S11" s="2">
         <v>0.01</v>
       </c>
       <c r="T11" s="1">
-        <v>5152.0</v>
+        <v>17824.0</v>
       </c>
       <c r="U11" s="6">
-        <v>-5152.0</v>
+        <v>-17824.0</v>
       </c>
       <c r="V11" s="1">
-        <v>644000</v>
+        <v>2228000</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
@@ -11599,7 +11599,7 @@
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>25760.0</v>
+        <v>89120.0</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
@@ -11635,23 +11635,23 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>668000</v>
+        <v>2516000</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>534400.0</v>
+        <v>2012800.0</v>
       </c>
       <c r="S12" s="2">
         <v>0.01</v>
       </c>
       <c r="T12" s="1">
-        <v>5344.0</v>
+        <v>20128.0</v>
       </c>
       <c r="U12" s="6">
-        <v>-5344.0</v>
+        <v>-20128.0</v>
       </c>
       <c r="V12" s="1">
-        <v>668000</v>
+        <v>2516000</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
@@ -11665,7 +11665,7 @@
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>26720.0</v>
+        <v>100640.0</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
@@ -11701,23 +11701,23 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>692000</v>
+        <v>2804000</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>553600.0</v>
+        <v>2243200.0</v>
       </c>
       <c r="S13" s="2">
         <v>0.01</v>
       </c>
       <c r="T13" s="1">
-        <v>5536.0</v>
+        <v>22432.0</v>
       </c>
       <c r="U13" s="6">
-        <v>-5536.0</v>
+        <v>-22432.0</v>
       </c>
       <c r="V13" s="1">
-        <v>692000</v>
+        <v>2804000</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
@@ -11731,7 +11731,7 @@
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>27680.0</v>
+        <v>112160.0</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
@@ -11767,23 +11767,23 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>716000</v>
+        <v>3092000</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>572800.0</v>
+        <v>2473600.0</v>
       </c>
       <c r="S14" s="2">
         <v>0.01</v>
       </c>
       <c r="T14" s="1">
-        <v>5728.0</v>
+        <v>24736.0</v>
       </c>
       <c r="U14" s="6">
-        <v>-5728.0</v>
+        <v>-24736.0</v>
       </c>
       <c r="V14" s="1">
-        <v>716000</v>
+        <v>3092000</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
@@ -11797,7 +11797,7 @@
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>28640.0</v>
+        <v>123680.0</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
@@ -11833,23 +11833,23 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>740000</v>
+        <v>3380000</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>592000.0</v>
+        <v>2704000.0</v>
       </c>
       <c r="S15" s="2">
         <v>0.01</v>
       </c>
       <c r="T15" s="1">
-        <v>5920.0</v>
+        <v>27040.0</v>
       </c>
       <c r="U15" s="6">
-        <v>-5920.0</v>
+        <v>-27040.0</v>
       </c>
       <c r="V15" s="1">
-        <v>740000</v>
+        <v>3380000</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
@@ -11863,7 +11863,7 @@
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>29600.0</v>
+        <v>135200.0</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
@@ -11899,23 +11899,23 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>764000</v>
+        <v>3668000</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>611200.0</v>
+        <v>2934400.0</v>
       </c>
       <c r="S16" s="2">
         <v>0.01</v>
       </c>
       <c r="T16" s="1">
-        <v>6112.0</v>
+        <v>29344.0</v>
       </c>
       <c r="U16" s="6">
-        <v>-6112.0</v>
+        <v>-29344.0</v>
       </c>
       <c r="V16" s="1">
-        <v>764000</v>
+        <v>3668000</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
@@ -11929,7 +11929,7 @@
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>30560.0</v>
+        <v>146720.0</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
@@ -11965,23 +11965,23 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>788000</v>
+        <v>3956000</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>630400.0</v>
+        <v>3164800.0</v>
       </c>
       <c r="S17" s="2">
         <v>0.01</v>
       </c>
       <c r="T17" s="1">
-        <v>6304.0</v>
+        <v>31648.0</v>
       </c>
       <c r="U17" s="6">
-        <v>-6304.0</v>
+        <v>-31648.0</v>
       </c>
       <c r="V17" s="1">
-        <v>788000</v>
+        <v>3956000</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
@@ -11995,7 +11995,7 @@
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>31520.0</v>
+        <v>158240.0</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
@@ -12031,23 +12031,23 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>812000</v>
+        <v>4244000</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>649600.0</v>
+        <v>3395200.0</v>
       </c>
       <c r="S18" s="2">
         <v>0.01</v>
       </c>
       <c r="T18" s="1">
-        <v>6496.0</v>
+        <v>33952.0</v>
       </c>
       <c r="U18" s="6">
-        <v>-6496.0</v>
+        <v>-33952.0</v>
       </c>
       <c r="V18" s="1">
-        <v>812000</v>
+        <v>4244000</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
@@ -12061,7 +12061,7 @@
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>32480.0</v>
+        <v>169760.0</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
@@ -12097,23 +12097,23 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>836000</v>
+        <v>4532000</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>668800.0</v>
+        <v>3625600.0</v>
       </c>
       <c r="S19" s="2">
         <v>0.01</v>
       </c>
       <c r="T19" s="1">
-        <v>6688.0</v>
+        <v>36256.0</v>
       </c>
       <c r="U19" s="6">
-        <v>-6688.0</v>
+        <v>-36256.0</v>
       </c>
       <c r="V19" s="1">
-        <v>836000</v>
+        <v>4532000</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
@@ -12127,7 +12127,7 @@
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>33440.0</v>
+        <v>181280.0</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
@@ -12163,23 +12163,23 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>860000</v>
+        <v>4820000</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>688000.0</v>
+        <v>3856000.0</v>
       </c>
       <c r="S20" s="2">
         <v>0.01</v>
       </c>
       <c r="T20" s="1">
-        <v>6880.0</v>
+        <v>38560.0</v>
       </c>
       <c r="U20" s="6">
-        <v>-6880.0</v>
+        <v>-38560.0</v>
       </c>
       <c r="V20" s="1">
-        <v>860000</v>
+        <v>4820000</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
@@ -12193,7 +12193,7 @@
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>34400.0</v>
+        <v>192800.0</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
@@ -14277,23 +14277,23 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>798571.0</v>
+        <v>4475714.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>638856.8</v>
+        <v>3580571.2</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>6388.568</v>
+        <v>35805.712</v>
       </c>
       <c r="U53" s="13">
-        <v>-6388.568</v>
+        <v>-35805.712</v>
       </c>
       <c r="V53" s="13">
-        <v>798571.0</v>
+        <v>4475714.0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -14307,7 +14307,7 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>31943.0</v>
+        <v>179029.0</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
@@ -14343,23 +14343,23 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>737142.0</v>
+        <v>4131428.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>589713.6</v>
+        <v>3305142.4</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>5897.136</v>
+        <v>33051.424</v>
       </c>
       <c r="U54" s="6">
-        <v>-5897.136</v>
+        <v>-33051.424</v>
       </c>
       <c r="V54" s="1">
-        <v>737142.0</v>
+        <v>4131428.0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -14373,7 +14373,7 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>29486.0</v>
+        <v>165257.0</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
@@ -14409,23 +14409,23 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>675713.0</v>
+        <v>3787142.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>540570.4</v>
+        <v>3029713.6</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>5405.704</v>
+        <v>30297.136</v>
       </c>
       <c r="U55" s="6">
-        <v>-5405.704</v>
+        <v>-30297.136</v>
       </c>
       <c r="V55" s="1">
-        <v>675713.0</v>
+        <v>3787142.0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -14439,7 +14439,7 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>27029.0</v>
+        <v>151486.0</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
@@ -14475,23 +14475,23 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>614285.0</v>
+        <v>3442856.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>491428.0</v>
+        <v>2754284.8</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>4914.28</v>
+        <v>27542.848</v>
       </c>
       <c r="U56" s="6">
-        <v>-4914.28</v>
+        <v>-27542.848</v>
       </c>
       <c r="V56" s="1">
-        <v>614285.0</v>
+        <v>3442856.0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -14505,7 +14505,7 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>24571.0</v>
+        <v>137714.0</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
@@ -14541,23 +14541,23 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>552856.0</v>
+        <v>3098570.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>442284.8</v>
+        <v>2478856.0</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>4422.848</v>
+        <v>24788.56</v>
       </c>
       <c r="U57" s="13">
-        <v>-4422.848</v>
+        <v>-24788.56</v>
       </c>
       <c r="V57" s="13">
-        <v>552856.0</v>
+        <v>3098570.0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -14571,7 +14571,7 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>22114.0</v>
+        <v>123943.0</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
@@ -14607,23 +14607,23 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>491428.0</v>
+        <v>2754284.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>393142.4</v>
+        <v>2203427.2</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>3931.424</v>
+        <v>22034.272</v>
       </c>
       <c r="U58" s="6">
-        <v>-3931.424</v>
+        <v>-22034.272</v>
       </c>
       <c r="V58" s="1">
-        <v>491428.0</v>
+        <v>2754284.0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -14637,7 +14637,7 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>19657.0</v>
+        <v>110171.0</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
@@ -14673,23 +14673,23 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>429999.0</v>
+        <v>2409998.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>343999.2</v>
+        <v>1927998.4</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>3439.992</v>
+        <v>19279.984</v>
       </c>
       <c r="U59" s="6">
-        <v>-3439.992</v>
+        <v>-19279.984</v>
       </c>
       <c r="V59" s="1">
-        <v>429999.0</v>
+        <v>2409998.0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -14703,7 +14703,7 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>17200.0</v>
+        <v>96400.0</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
@@ -14739,23 +14739,23 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>368571.0</v>
+        <v>2065713.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>294856.8</v>
+        <v>1652570.4</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
       </c>
       <c r="T60" s="1">
-        <v>2948.568</v>
+        <v>16525.704</v>
       </c>
       <c r="U60" s="6">
-        <v>-2948.568</v>
+        <v>-16525.704</v>
       </c>
       <c r="V60" s="1">
-        <v>368571.0</v>
+        <v>2065713.0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -14769,7 +14769,7 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>14743.0</v>
+        <v>82629.0</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
@@ -14805,23 +14805,23 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>307142.0</v>
+        <v>1721427.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>245713.6</v>
+        <v>1377141.6</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
       </c>
       <c r="T61" s="1">
-        <v>2457.136</v>
+        <v>13771.416</v>
       </c>
       <c r="U61" s="6">
-        <v>-2457.136</v>
+        <v>-13771.416</v>
       </c>
       <c r="V61" s="1">
-        <v>307142.0</v>
+        <v>1721427.0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -14835,7 +14835,7 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>12286.0</v>
+        <v>68857.0</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
@@ -14871,23 +14871,23 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>245714.0</v>
+        <v>1377142.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>196571.2</v>
+        <v>1101713.6</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
       </c>
       <c r="T62" s="1">
-        <v>1965.712</v>
+        <v>11017.136</v>
       </c>
       <c r="U62" s="6">
-        <v>-1965.712</v>
+        <v>-11017.136</v>
       </c>
       <c r="V62" s="1">
-        <v>245714.0</v>
+        <v>1377142.0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -14901,7 +14901,7 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>9829.0</v>
+        <v>55086.0</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
@@ -14937,23 +14937,23 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>184285.0</v>
+        <v>1032856.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>147428.0</v>
+        <v>826284.8</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>1474.28</v>
+        <v>8262.848</v>
       </c>
       <c r="U63" s="6">
-        <v>-1474.28</v>
+        <v>-8262.848</v>
       </c>
       <c r="V63" s="1">
-        <v>184285.0</v>
+        <v>1032856.0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -14967,7 +14967,7 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>7371.0</v>
+        <v>41314.0</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
@@ -15003,23 +15003,23 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>122857.0</v>
+        <v>688571.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>98285.6</v>
+        <v>550856.8</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
       </c>
       <c r="T64" s="1">
-        <v>982.856</v>
+        <v>5508.568</v>
       </c>
       <c r="U64" s="6">
-        <v>-982.856</v>
+        <v>-5508.568</v>
       </c>
       <c r="V64" s="1">
-        <v>122857.0</v>
+        <v>688571.0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -15033,7 +15033,7 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>4914.0</v>
+        <v>27543.0</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
@@ -15069,23 +15069,23 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>49142.4</v>
+        <v>275428.0</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
       </c>
       <c r="T65" s="1">
-        <v>491.424</v>
+        <v>2754.28</v>
       </c>
       <c r="U65" s="6">
-        <v>-491.424</v>
+        <v>-2754.28</v>
       </c>
       <c r="V65" s="1">
-        <v>61428.0</v>
+        <v>344285.0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -15099,7 +15099,7 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>2457.0</v>
+        <v>13771.0</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">

--- a/tests/Feature/config/otp_zero.xlsx
+++ b/tests/Feature/config/otp_zero.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
-    <sheet name="Salary" sheetId="2" r:id="rId5"/>
+    <sheet name="income" sheetId="2" r:id="rId5"/>
     <sheet name="OTP" sheetId="3" r:id="rId6"/>
     <sheet name="Statistics" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>private</t>
   </si>
@@ -137,10 +137,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>salary</t>
+    <t>income</t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
@@ -148,7 +145,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SalaryPercent is: 24000 transfer add 24000 to otp.2023.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">IncomePercent is: 24000 transfer add 24000 to otp.2023.value.valueUsing previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
@@ -224,72 +221,72 @@
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0OTP fra 2038, -1/14 av formuen fra pensjonsåret Asset rule Divisor is: 344286 new rule: 1/13 transfer 344286 to income.2038.income.amount reduce otp.2038 by 344286
+Using previous value: 0OTP fra 2038, 1/14 av formuen fra pensjonsåret Asset rule Divisor is: 102857 new rule: 1/13 transfer 102857 to income.2038.income.amount reduce otp.2038 by 102857
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/12 transfer 344286 to income.2039.income.amount reduce otp.2039 by 344286
+Using previous value: 0 Asset rule Divisor is: 102857 new rule: 1/12 transfer 102857 to income.2039.income.amount reduce otp.2039 by 102857
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/11 transfer 344286 to income.2040.income.amount reduce otp.2040 by 344286
+Using previous value: 0 Asset rule Divisor is: 102857 new rule: 1/11 transfer 102857 to income.2040.income.amount reduce otp.2040 by 102857
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/10 transfer 344286 to income.2041.income.amount reduce otp.2041 by 344286
+Using previous value: 0 Asset rule Divisor is: 102857 new rule: 1/10 transfer 102857 to income.2041.income.amount reduce otp.2041 by 102857
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/9 transfer 344286 to income.2042.income.amount reduce otp.2042 by 344286
+Using previous value: 0 Asset rule Divisor is: 102857 new rule: 1/9 transfer 102857 to income.2042.income.amount reduce otp.2042 by 102857
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/8 transfer 344286 to income.2043.income.amount reduce otp.2043 by 344286
+Using previous value: 0 Asset rule Divisor is: 102857 new rule: 1/8 transfer 102857 to income.2043.income.amount reduce otp.2043 by 102857
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/7 transfer 344286 to income.2044.income.amount reduce otp.2044 by 344286
+Using previous value: 0 Asset rule Divisor is: 102857 new rule: 1/7 transfer 102857 to income.2044.income.amount reduce otp.2044 by 102857
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344285 new rule: 1/6 transfer 344285 to income.2045.income.amount reduce otp.2045 by 344285
+Using previous value: 0 Asset rule Divisor is: 102857 new rule: 1/6 transfer 102857 to income.2045.income.amount reduce otp.2045 by 102857
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/5 transfer 344286 to income.2046.income.amount reduce otp.2046 by 344286
+Using previous value: 0 Asset rule Divisor is: 102857 new rule: 1/5 transfer 102857 to income.2046.income.amount reduce otp.2046 by 102857
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344285 new rule: 1/4 transfer 344285 to income.2047.income.amount reduce otp.2047 by 344285
+Using previous value: 0 Asset rule Divisor is: 102857 new rule: 1/4 transfer 102857 to income.2047.income.amount reduce otp.2047 by 102857
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/3 transfer 344286 to income.2048.income.amount reduce otp.2048 by 344286
+Using previous value: 0 Asset rule Divisor is: 102858 new rule: 1/3 transfer 102858 to income.2048.income.amount reduce otp.2048 by 102858
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344285 new rule: 1/2 transfer 344285 to income.2049.income.amount reduce otp.2049 by 344285
+Using previous value: 0 Asset rule Divisor is: 102857 new rule: 1/2 transfer 102857 to income.2049.income.amount reduce otp.2049 by 102857
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344286 new rule: 1/1 transfer 344286 to income.2050.income.amount reduce otp.2050 by 344286
+Using previous value: 0 Asset rule Divisor is: 102858 new rule: 1/1 transfer 102858 to income.2050.income.amount reduce otp.2050 by 102858
 </t>
   </si>
   <si>
     <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule Divisor is: 344285 new rule:  transfer 344285 to income.2051.income.amount reduce otp.2051 by 344285
+Using previous value: 0 Asset rule Divisor is: 102857 new rule:  transfer 102857 to income.2051.income.amount reduce otp.2051 by 102857
 </t>
   </si>
   <si>
@@ -712,14 +709,14 @@
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -898,7 +895,7 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="1">
@@ -970,7 +967,7 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="1">
@@ -1042,7 +1039,7 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="1">
@@ -1114,7 +1111,7 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="1">
@@ -1186,7 +1183,7 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="1">
@@ -1258,7 +1255,7 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="1">
@@ -1330,7 +1327,7 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="1">
@@ -1402,7 +1399,7 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="1">
@@ -1474,7 +1471,7 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="1">
@@ -1546,7 +1543,7 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="1">
@@ -1618,7 +1615,7 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="1">
@@ -1690,7 +1687,7 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="1">
@@ -1762,7 +1759,7 @@
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1">
@@ -1834,7 +1831,7 @@
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1">
@@ -1906,7 +1903,7 @@
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1">
@@ -1978,7 +1975,7 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1">
@@ -2050,7 +2047,7 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="1">
@@ -2122,7 +2119,7 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="1">
@@ -2194,7 +2191,7 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1">
@@ -2266,7 +2263,7 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="1">
@@ -2338,7 +2335,7 @@
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="1">
@@ -2410,7 +2407,7 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="1">
@@ -2482,7 +2479,7 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="1">
@@ -2554,7 +2551,7 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="1">
@@ -2626,7 +2623,7 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="1">
@@ -2698,7 +2695,7 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="1">
@@ -2770,7 +2767,7 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="1">
@@ -2842,7 +2839,7 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="1">
@@ -2914,7 +2911,7 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="1">
@@ -2986,7 +2983,7 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="1">
@@ -3058,7 +3055,7 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="1">
@@ -3130,28 +3127,30 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0</v>
+        <v>1080000</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S37" s="2"/>
+        <v>864000.0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0.01</v>
+      </c>
       <c r="T37" s="1">
         <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>0.0</v>
+        <v>-8640.0</v>
       </c>
       <c r="V37" s="1">
-        <v>0</v>
+        <v>1080000</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
@@ -3167,9 +3166,11 @@
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>0.0</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>43200.0</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>1.0</v>
+      </c>
       <c r="AD37"/>
     </row>
     <row r="38" spans="1:31">
@@ -3202,18 +3203,18 @@
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>788000</v>
+        <v>1104000</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
-        <v>630400.0</v>
+        <v>883200.0</v>
       </c>
       <c r="S38" s="9">
         <v>0.01</v>
@@ -3222,10 +3223,10 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="8">
-        <v>233696.0</v>
+        <v>471168.0</v>
       </c>
       <c r="V38" s="8">
-        <v>788000</v>
+        <v>1104000</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
@@ -3241,10 +3242,10 @@
         <v>0.0</v>
       </c>
       <c r="AB38" s="7">
-        <v>271520.0</v>
+        <v>524160.0</v>
       </c>
       <c r="AC38" s="9">
-        <v>0.53081013450109</v>
+        <v>1.0</v>
       </c>
       <c r="AD38" s="7"/>
     </row>
@@ -3278,18 +3279,18 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>1076000</v>
+        <v>1128000</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>860800.0</v>
+        <v>902400.0</v>
       </c>
       <c r="S39" s="2">
         <v>0.01</v>
@@ -3298,10 +3299,10 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>231392.0</v>
+        <v>470976.0</v>
       </c>
       <c r="V39" s="1">
-        <v>1076000</v>
+        <v>1128000</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
@@ -3317,10 +3318,10 @@
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>283040.0</v>
+        <v>525120.0</v>
       </c>
       <c r="AC39" s="2">
-        <v>0.54114408075864</v>
+        <v>1.0</v>
       </c>
       <c r="AD39"/>
     </row>
@@ -3354,18 +3355,18 @@
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>1364000</v>
+        <v>1152000</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>1091200.0</v>
+        <v>921600.0</v>
       </c>
       <c r="S40" s="12">
         <v>0.01</v>
@@ -3374,10 +3375,10 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>229088.0</v>
+        <v>470784.0</v>
       </c>
       <c r="V40" s="11">
-        <v>1364000</v>
+        <v>1152000</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
@@ -3393,10 +3394,10 @@
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>294560.0</v>
+        <v>526080.0</v>
       </c>
       <c r="AC40" s="12">
-        <v>0.55103262496259</v>
+        <v>1.0</v>
       </c>
       <c r="AD40" s="10"/>
     </row>
@@ -3430,18 +3431,18 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>1652000</v>
+        <v>1176000</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>1321600.0</v>
+        <v>940800.0</v>
       </c>
       <c r="S41" s="2">
         <v>0.01</v>
@@ -3450,10 +3451,10 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>226784.0</v>
+        <v>470592.0</v>
       </c>
       <c r="V41" s="1">
-        <v>1652000</v>
+        <v>1176000</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
@@ -3469,10 +3470,10 @@
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>306080.0</v>
+        <v>527040.0</v>
       </c>
       <c r="AC41" s="2">
-        <v>0.5605039554644</v>
+        <v>1.0</v>
       </c>
       <c r="AD41"/>
     </row>
@@ -3506,18 +3507,18 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>1940000</v>
+        <v>1200000</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>1552000.0</v>
+        <v>960000.0</v>
       </c>
       <c r="S42" s="2">
         <v>0.01</v>
@@ -3526,10 +3527,10 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>224480.0</v>
+        <v>470400.0</v>
       </c>
       <c r="V42" s="1">
-        <v>1940000</v>
+        <v>1200000</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
@@ -3545,10 +3546,10 @@
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>317600.0</v>
+        <v>528000.0</v>
       </c>
       <c r="AC42" s="2">
-        <v>0.56958393113343</v>
+        <v>1.0</v>
       </c>
       <c r="AD42"/>
     </row>
@@ -3582,30 +3583,30 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>2228000</v>
+        <v>1224000</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>1782400.0</v>
+        <v>979200.0</v>
       </c>
       <c r="S43" s="2">
         <v>0.01</v>
       </c>
       <c r="T43" s="1">
-        <v>824.0</v>
+        <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>222176.0</v>
+        <v>470208.0</v>
       </c>
       <c r="V43" s="1">
-        <v>2228000</v>
+        <v>1224000</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
@@ -3621,10 +3622,10 @@
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>329120.0</v>
+        <v>528960.0</v>
       </c>
       <c r="AC43" s="2">
-        <v>0.57829631712117</v>
+        <v>1.0</v>
       </c>
       <c r="AD43"/>
     </row>
@@ -3658,30 +3659,30 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>2516000</v>
+        <v>1248000</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>2012800.0</v>
+        <v>998400.0</v>
       </c>
       <c r="S44" s="2">
         <v>0.01</v>
       </c>
       <c r="T44" s="1">
-        <v>3128.0</v>
+        <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>219872.0</v>
+        <v>470016.0</v>
       </c>
       <c r="V44" s="1">
-        <v>2516000</v>
+        <v>1248000</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
@@ -3697,10 +3698,10 @@
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>340640.0</v>
+        <v>529920.0</v>
       </c>
       <c r="AC44" s="2">
-        <v>0.58666299255993</v>
+        <v>1.0</v>
       </c>
       <c r="AD44"/>
     </row>
@@ -3734,30 +3735,30 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>2804000</v>
+        <v>1272000</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>2243200.0</v>
+        <v>1017600.0</v>
       </c>
       <c r="S45" s="2">
         <v>0.01</v>
       </c>
       <c r="T45" s="1">
-        <v>5432.0</v>
+        <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>217568.0</v>
+        <v>469824.0</v>
       </c>
       <c r="V45" s="1">
-        <v>2804000</v>
+        <v>1272000</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
@@ -3773,10 +3774,10 @@
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>352160.0</v>
+        <v>530880.0</v>
       </c>
       <c r="AC45" s="2">
-        <v>0.59470413401783</v>
+        <v>1.0</v>
       </c>
       <c r="AD45"/>
     </row>
@@ -3810,30 +3811,30 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>3092000</v>
+        <v>1296000</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>2473600.0</v>
+        <v>1036800.0</v>
       </c>
       <c r="S46" s="2">
         <v>0.01</v>
       </c>
       <c r="T46" s="1">
-        <v>7736.0</v>
+        <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>215264.0</v>
+        <v>469632.0</v>
       </c>
       <c r="V46" s="1">
-        <v>3092000</v>
+        <v>1296000</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
@@ -3849,10 +3850,10 @@
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>363680.0</v>
+        <v>531840.0</v>
       </c>
       <c r="AC46" s="2">
-        <v>0.60243837794858</v>
+        <v>1.0</v>
       </c>
       <c r="AD46"/>
     </row>
@@ -3886,30 +3887,30 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>3380000</v>
+        <v>1320000</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>2704000.0</v>
+        <v>1056000.0</v>
       </c>
       <c r="S47" s="2">
         <v>0.01</v>
       </c>
       <c r="T47" s="1">
-        <v>10040.0</v>
+        <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>212960.0</v>
+        <v>469440.0</v>
       </c>
       <c r="V47" s="1">
-        <v>3380000</v>
+        <v>1320000</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
@@ -3925,10 +3926,10 @@
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>375200.0</v>
+        <v>532800.0</v>
       </c>
       <c r="AC47" s="2">
-        <v>0.60988296488947</v>
+        <v>1.0</v>
       </c>
       <c r="AD47"/>
     </row>
@@ -3962,30 +3963,30 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>3668000</v>
+        <v>1344000</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>2934400.0</v>
+        <v>1075200.0</v>
       </c>
       <c r="S48" s="2">
         <v>0.01</v>
       </c>
       <c r="T48" s="1">
-        <v>12344.0</v>
+        <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>210656.0</v>
+        <v>469248.0</v>
       </c>
       <c r="V48" s="1">
-        <v>3668000</v>
+        <v>1344000</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
@@ -4001,10 +4002,10 @@
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>386720.0</v>
+        <v>533760.0</v>
       </c>
       <c r="AC48" s="2">
-        <v>0.61705386775594</v>
+        <v>1.0</v>
       </c>
       <c r="AD48"/>
     </row>
@@ -4038,30 +4039,30 @@
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>3956000</v>
+        <v>1368000</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>3164800.0</v>
+        <v>1094400.0</v>
       </c>
       <c r="S49" s="2">
         <v>0.01</v>
       </c>
       <c r="T49" s="1">
-        <v>14648.0</v>
+        <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>208352.0</v>
+        <v>469056.0</v>
       </c>
       <c r="V49" s="1">
-        <v>3956000</v>
+        <v>1368000</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
@@ -4077,10 +4078,10 @@
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>398240.0</v>
+        <v>534720.0</v>
       </c>
       <c r="AC49" s="2">
-        <v>0.62396590624217</v>
+        <v>1.0</v>
       </c>
       <c r="AD49"/>
     </row>
@@ -4114,30 +4115,30 @@
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>4244000</v>
+        <v>1392000</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>3395200.0</v>
+        <v>1113600.0</v>
       </c>
       <c r="S50" s="2">
         <v>0.01</v>
       </c>
       <c r="T50" s="1">
-        <v>16952.0</v>
+        <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>206048.0</v>
+        <v>468864.0</v>
       </c>
       <c r="V50" s="1">
-        <v>4244000</v>
+        <v>1392000</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
@@ -4153,10 +4154,10 @@
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>409760.0</v>
+        <v>535680.0</v>
       </c>
       <c r="AC50" s="2">
-        <v>0.63063284905196</v>
+        <v>1.0</v>
       </c>
       <c r="AD50"/>
     </row>
@@ -4190,30 +4191,30 @@
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>4532000</v>
+        <v>1416000</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>3625600.0</v>
+        <v>1132800.0</v>
       </c>
       <c r="S51" s="2">
         <v>0.01</v>
       </c>
       <c r="T51" s="1">
-        <v>19256.0</v>
+        <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>203744.0</v>
+        <v>468672.0</v>
       </c>
       <c r="V51" s="1">
-        <v>4532000</v>
+        <v>1416000</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
@@ -4229,10 +4230,10 @@
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>421280.0</v>
+        <v>536640.0</v>
       </c>
       <c r="AC51" s="2">
-        <v>0.63706750544399</v>
+        <v>1.0</v>
       </c>
       <c r="AD51"/>
     </row>
@@ -4266,30 +4267,30 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>-240000.0</v>
+        <v>0</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>4820000</v>
+        <v>1440000</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>3856000.0</v>
+        <v>1152000.0</v>
       </c>
       <c r="S52" s="2">
         <v>0.01</v>
       </c>
       <c r="T52" s="1">
-        <v>21560.0</v>
+        <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>201440.0</v>
+        <v>468480.0</v>
       </c>
       <c r="V52" s="1">
-        <v>4820000</v>
+        <v>1440000</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -4305,10 +4306,10 @@
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>432800.0</v>
+        <v>537600.0</v>
       </c>
       <c r="AC52" s="2">
-        <v>0.64328180737218</v>
+        <v>1.0</v>
       </c>
       <c r="AD52"/>
     </row>
@@ -4320,7 +4321,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -4342,30 +4343,30 @@
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N53" s="14"/>
       <c r="O53" s="13">
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>4475714.0</v>
+        <v>1337143.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>3580571.2</v>
+        <v>1069714.4</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>18805.712</v>
+        <v>0.0</v>
       </c>
       <c r="U53" s="13">
-        <v>-35805.712</v>
+        <v>-10697.144</v>
       </c>
       <c r="V53" s="13">
-        <v>4475714.0</v>
+        <v>1337143.0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -4381,10 +4382,10 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>179029.0</v>
+        <v>53486.0</v>
       </c>
       <c r="AC53" s="14">
-        <v>1.0000024577084</v>
+        <v>1.0000052350422</v>
       </c>
       <c r="AD53" s="3"/>
     </row>
@@ -4396,7 +4397,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -4418,30 +4419,30 @@
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>4131428.0</v>
+        <v>1234286.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>3305142.4</v>
+        <v>987428.8</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>16051.424</v>
+        <v>0.0</v>
       </c>
       <c r="U54" s="6">
-        <v>-33051.424</v>
+        <v>-9874.288</v>
       </c>
       <c r="V54" s="1">
-        <v>4131428.0</v>
+        <v>1234286.0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -4457,10 +4458,10 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>165257.0</v>
+        <v>49371.0</v>
       </c>
       <c r="AC54" s="2">
-        <v>0.99999927385882</v>
+        <v>0.99999108796503</v>
       </c>
       <c r="AD54"/>
     </row>
@@ -4472,7 +4473,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -4494,30 +4495,30 @@
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="1">
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>3787142.0</v>
+        <v>1131429.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>3029713.6</v>
+        <v>905143.2</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>13297.136</v>
+        <v>0.0</v>
       </c>
       <c r="U55" s="6">
-        <v>-30297.136</v>
+        <v>-9051.432</v>
       </c>
       <c r="V55" s="1">
-        <v>3787142.0</v>
+        <v>1131429.0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -4533,10 +4534,10 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>151486.0</v>
+        <v>45257.0</v>
       </c>
       <c r="AC55" s="2">
-        <v>1.0000021124109</v>
+        <v>0.9999964646478</v>
       </c>
       <c r="AD55"/>
     </row>
@@ -4548,7 +4549,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -4570,30 +4571,30 @@
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="1">
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>3442856.0</v>
+        <v>1028572.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>2754284.8</v>
+        <v>822857.6</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>10542.848</v>
+        <v>0.0</v>
       </c>
       <c r="U56" s="6">
-        <v>-27542.848</v>
+        <v>-8228.576</v>
       </c>
       <c r="V56" s="1">
-        <v>3442856.0</v>
+        <v>1028572.0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -4609,10 +4610,10 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>137714.0</v>
+        <v>41143.0</v>
       </c>
       <c r="AC56" s="2">
-        <v>0.99999825726083</v>
+        <v>1.000002916665</v>
       </c>
       <c r="AD56"/>
     </row>
@@ -4624,7 +4625,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -4646,30 +4647,30 @@
       </c>
       <c r="L57" s="14"/>
       <c r="M57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N57" s="14"/>
       <c r="O57" s="13">
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>3098570.0</v>
+        <v>925715.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>2478856.0</v>
+        <v>740572.0</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>7788.56</v>
+        <v>0.0</v>
       </c>
       <c r="U57" s="13">
-        <v>-24788.56</v>
+        <v>-7405.72</v>
       </c>
       <c r="V57" s="13">
-        <v>3098570.0</v>
+        <v>925715.0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -4685,10 +4686,10 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>123943.0</v>
+        <v>37029.0</v>
       </c>
       <c r="AC57" s="14">
-        <v>1.0000016136476</v>
+        <v>1.0000108024608</v>
       </c>
       <c r="AD57" s="3"/>
     </row>
@@ -4700,7 +4701,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -4722,30 +4723,30 @@
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="1">
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>2754284.0</v>
+        <v>822858.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>2203427.2</v>
+        <v>658286.4</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>5034.272</v>
+        <v>0.0</v>
       </c>
       <c r="U58" s="6">
-        <v>-22034.272</v>
+        <v>-6582.864</v>
       </c>
       <c r="V58" s="1">
-        <v>2754284.0</v>
+        <v>822858.0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -4761,10 +4762,10 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>110171.0</v>
+        <v>32914.0</v>
       </c>
       <c r="AC58" s="2">
-        <v>0.99999673236311</v>
+        <v>0.99999027778791</v>
       </c>
       <c r="AD58"/>
     </row>
@@ -4776,7 +4777,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -4798,30 +4799,30 @@
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="1">
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>2409998.0</v>
+        <v>720001.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>1927998.4</v>
+        <v>576000.8</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>2279.984</v>
+        <v>0.0</v>
       </c>
       <c r="U59" s="6">
-        <v>-19279.984</v>
+        <v>-5760.008</v>
       </c>
       <c r="V59" s="1">
-        <v>2409998.0</v>
+        <v>720001.0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -4837,10 +4838,10 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>96400.0</v>
+        <v>28800.0</v>
       </c>
       <c r="AC59" s="2">
-        <v>1.0000008298762</v>
+        <v>0.99999861111304</v>
       </c>
       <c r="AD59"/>
     </row>
@@ -4852,7 +4853,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -4874,18 +4875,18 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="1">
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>2065713.0</v>
+        <v>617144.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>1652570.4</v>
+        <v>493715.2</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
@@ -4894,10 +4895,10 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="6">
-        <v>-16525.704</v>
+        <v>-4937.152</v>
       </c>
       <c r="V60" s="1">
-        <v>2065713.0</v>
+        <v>617144.0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -4913,10 +4914,10 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>82629.0</v>
+        <v>24686.0</v>
       </c>
       <c r="AC60" s="2">
-        <v>1.0000058091322</v>
+        <v>1.0000097222042</v>
       </c>
       <c r="AD60"/>
     </row>
@@ -4928,7 +4929,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -4950,18 +4951,18 @@
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="1">
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>1721427.0</v>
+        <v>514287.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>1377141.6</v>
+        <v>411429.6</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
@@ -4970,10 +4971,10 @@
         <v>0.0</v>
       </c>
       <c r="U61" s="6">
-        <v>-13771.416</v>
+        <v>-4114.296</v>
       </c>
       <c r="V61" s="1">
-        <v>1721427.0</v>
+        <v>514287.0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -4989,10 +4990,10 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>68857.0</v>
+        <v>20571.0</v>
       </c>
       <c r="AC61" s="2">
-        <v>0.99999883817321</v>
+        <v>0.999976666725</v>
       </c>
       <c r="AD61"/>
     </row>
@@ -5004,7 +5005,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -5026,18 +5027,18 @@
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="1">
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>1377142.0</v>
+        <v>411430.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>1101713.6</v>
+        <v>329144.0</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
@@ -5046,10 +5047,10 @@
         <v>0.0</v>
       </c>
       <c r="U62" s="6">
-        <v>-11017.136</v>
+        <v>-3291.44</v>
       </c>
       <c r="V62" s="1">
-        <v>1377142.0</v>
+        <v>411430.0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -5065,10 +5066,10 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>55086.0</v>
+        <v>16457.0</v>
       </c>
       <c r="AC62" s="2">
-        <v>1.0000058091322</v>
+        <v>0.99998784726442</v>
       </c>
       <c r="AD62"/>
     </row>
@@ -5080,7 +5081,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>344286.0</v>
+        <v>102858.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -5102,18 +5103,18 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="1">
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>1032856.0</v>
+        <v>308572.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>826284.8</v>
+        <v>246857.6</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
@@ -5122,10 +5123,10 @@
         <v>0.0</v>
       </c>
       <c r="U63" s="6">
-        <v>-8262.848</v>
+        <v>-2468.576</v>
       </c>
       <c r="V63" s="1">
-        <v>1032856.0</v>
+        <v>308572.0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -5141,10 +5142,10 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>41314.0</v>
+        <v>12343.0</v>
       </c>
       <c r="AC63" s="2">
-        <v>0.99999419086494</v>
+        <v>1.0000097222042</v>
       </c>
       <c r="AD63"/>
     </row>
@@ -5156,7 +5157,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -5178,18 +5179,18 @@
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="1">
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>688571.0</v>
+        <v>205715.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>550856.8</v>
+        <v>164572.0</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
@@ -5198,10 +5199,10 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="6">
-        <v>-5508.568</v>
+        <v>-1645.72</v>
       </c>
       <c r="V64" s="1">
-        <v>688571.0</v>
+        <v>205715.0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -5217,10 +5218,10 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>27543.0</v>
+        <v>8229.0</v>
       </c>
       <c r="AC64" s="2">
-        <v>1.0000058091322</v>
+        <v>1.0000486109423</v>
       </c>
       <c r="AD64"/>
     </row>
@@ -5232,7 +5233,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>344286.0</v>
+        <v>102858.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -5254,18 +5255,18 @@
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="1">
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>275428.0</v>
+        <v>82285.6</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
@@ -5274,10 +5275,10 @@
         <v>0.0</v>
       </c>
       <c r="U65" s="6">
-        <v>-2754.28</v>
+        <v>-822.856</v>
       </c>
       <c r="V65" s="1">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -5293,10 +5294,10 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>13771.0</v>
+        <v>4114.0</v>
       </c>
       <c r="AC65" s="2">
-        <v>0.99997095429659</v>
+        <v>0.99993194434992</v>
       </c>
       <c r="AD65"/>
     </row>
@@ -5308,7 +5309,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -5330,7 +5331,7 @@
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="1">
@@ -5402,7 +5403,7 @@
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="1">
@@ -5474,7 +5475,7 @@
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="1">
@@ -5546,7 +5547,7 @@
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="1">
@@ -5618,7 +5619,7 @@
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="1">
@@ -5690,7 +5691,7 @@
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="1">
@@ -5762,7 +5763,7 @@
       </c>
       <c r="L72" s="16"/>
       <c r="M72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N72" s="16"/>
       <c r="O72" s="5">
@@ -6069,7 +6070,7 @@
     <col min="10" max="10" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -6107,7 +6108,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -6249,15 +6250,11 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="1">
         <v>0</v>
       </c>
@@ -6294,7 +6291,7 @@
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -6317,15 +6314,11 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="1">
         <v>0</v>
       </c>
@@ -6362,7 +6355,7 @@
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6385,15 +6378,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="1">
         <v>0</v>
       </c>
@@ -6430,7 +6419,7 @@
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6453,15 +6442,11 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="1">
         <v>0</v>
       </c>
@@ -6498,7 +6483,7 @@
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6521,15 +6506,11 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="1">
         <v>0</v>
       </c>
@@ -6566,7 +6547,7 @@
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6589,15 +6570,11 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="1">
         <v>0</v>
       </c>
@@ -6634,7 +6611,7 @@
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6657,15 +6634,11 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="1">
         <v>0</v>
       </c>
@@ -6702,7 +6675,7 @@
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6725,15 +6698,11 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="1">
         <v>0</v>
       </c>
@@ -6770,7 +6739,7 @@
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6793,15 +6762,11 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="1">
         <v>0</v>
       </c>
@@ -6838,7 +6803,7 @@
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6861,15 +6826,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="1">
         <v>0</v>
       </c>
@@ -6906,7 +6867,7 @@
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6929,15 +6890,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="1">
         <v>0</v>
       </c>
@@ -6974,7 +6931,7 @@
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6997,15 +6954,11 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="1">
         <v>0</v>
       </c>
@@ -7042,7 +6995,7 @@
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -7065,15 +7018,11 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="1">
         <v>0</v>
       </c>
@@ -7110,7 +7059,7 @@
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -7133,15 +7082,11 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="1">
         <v>0</v>
       </c>
@@ -7178,7 +7123,7 @@
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -7201,15 +7146,11 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L20" s="2"/>
       <c r="M20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="1">
         <v>0</v>
       </c>
@@ -7246,7 +7187,7 @@
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -7269,15 +7210,11 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="1">
         <v>0</v>
       </c>
@@ -7314,7 +7251,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -7337,15 +7274,11 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L22" s="2"/>
       <c r="M22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="1">
         <v>0</v>
       </c>
@@ -7382,7 +7315,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -7405,15 +7338,11 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L23" s="2"/>
       <c r="M23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="1">
         <v>0</v>
       </c>
@@ -7450,7 +7379,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -7473,15 +7402,11 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L24" s="2"/>
       <c r="M24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="1">
         <v>0</v>
       </c>
@@ -7518,7 +7443,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -7541,15 +7466,11 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="1">
         <v>0</v>
       </c>
@@ -7586,7 +7507,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -7609,15 +7530,11 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L26" s="2"/>
       <c r="M26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="1">
         <v>0</v>
       </c>
@@ -7654,7 +7571,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -7677,15 +7594,11 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="1">
         <v>0</v>
       </c>
@@ -7722,7 +7635,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -7745,15 +7658,11 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="1">
         <v>0</v>
       </c>
@@ -7790,7 +7699,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -7813,15 +7722,11 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="1">
         <v>0</v>
       </c>
@@ -7858,7 +7763,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -7881,15 +7786,11 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L30" s="2"/>
       <c r="M30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="1">
         <v>0</v>
       </c>
@@ -7926,7 +7827,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -7949,15 +7850,11 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L31" s="2"/>
       <c r="M31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N31" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="1">
         <v>0</v>
       </c>
@@ -7994,7 +7891,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -8017,15 +7914,11 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L32" s="2"/>
       <c r="M32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="1">
         <v>0</v>
       </c>
@@ -8062,7 +7955,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -8085,15 +7978,11 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L33" s="2"/>
       <c r="M33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="1">
         <v>0</v>
       </c>
@@ -8130,7 +8019,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -8153,15 +8042,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L34" s="2"/>
       <c r="M34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="1">
         <v>0</v>
       </c>
@@ -8198,7 +8083,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -8221,15 +8106,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L35" s="2"/>
       <c r="M35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="1">
         <v>0</v>
       </c>
@@ -8266,7 +8147,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -8289,15 +8170,11 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L36" s="2"/>
       <c r="M36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
@@ -8334,7 +8211,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8357,15 +8234,11 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L37" s="2"/>
       <c r="M37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
@@ -8402,7 +8275,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8425,15 +8298,11 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="9">
-        <v>0.5</v>
-      </c>
+      <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>-240000.0</v>
-      </c>
-      <c r="N38" s="9">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
@@ -8449,7 +8318,7 @@
         <v>0.0</v>
       </c>
       <c r="U38" s="8">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V38" s="8">
         <v>0</v>
@@ -8466,11 +8335,11 @@
         <v>0.0</v>
       </c>
       <c r="AB38" s="7">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8493,15 +8362,11 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
@@ -8517,7 +8382,7 @@
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V39" s="1">
         <v>0</v>
@@ -8534,11 +8399,11 @@
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8561,15 +8426,11 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="12">
-        <v>0.5</v>
-      </c>
+      <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>-240000.0</v>
-      </c>
-      <c r="N40" s="12">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
@@ -8585,7 +8446,7 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V40" s="11">
         <v>0</v>
@@ -8602,11 +8463,11 @@
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8629,15 +8490,11 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L41" s="2"/>
       <c r="M41" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="1">
         <v>0</v>
       </c>
@@ -8653,7 +8510,7 @@
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V41" s="1">
         <v>0</v>
@@ -8670,11 +8527,11 @@
         <v>0.0</v>
       </c>
       <c r="AB41">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8697,15 +8554,11 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L42" s="2"/>
       <c r="M42" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N42" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="1">
         <v>0</v>
       </c>
@@ -8721,7 +8574,7 @@
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V42" s="1">
         <v>0</v>
@@ -8738,11 +8591,11 @@
         <v>0.0</v>
       </c>
       <c r="AB42">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8765,15 +8618,11 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L43" s="2"/>
       <c r="M43" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="1">
         <v>0</v>
       </c>
@@ -8789,7 +8638,7 @@
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V43" s="1">
         <v>0</v>
@@ -8806,11 +8655,11 @@
         <v>0.0</v>
       </c>
       <c r="AB43">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8833,15 +8682,11 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L44" s="2"/>
       <c r="M44" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="1">
         <v>0</v>
       </c>
@@ -8857,7 +8702,7 @@
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V44" s="1">
         <v>0</v>
@@ -8874,11 +8719,11 @@
         <v>0.0</v>
       </c>
       <c r="AB44">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8901,15 +8746,11 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L45" s="2"/>
       <c r="M45" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="1">
         <v>0</v>
       </c>
@@ -8925,7 +8766,7 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V45" s="1">
         <v>0</v>
@@ -8942,11 +8783,11 @@
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8969,15 +8810,11 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L46" s="2"/>
       <c r="M46" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="1">
         <v>0</v>
       </c>
@@ -8993,7 +8830,7 @@
         <v>0.0</v>
       </c>
       <c r="U46" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V46" s="1">
         <v>0</v>
@@ -9010,11 +8847,11 @@
         <v>0.0</v>
       </c>
       <c r="AB46">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -9037,15 +8874,11 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L47" s="2"/>
       <c r="M47" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="1">
         <v>0</v>
       </c>
@@ -9061,7 +8894,7 @@
         <v>0.0</v>
       </c>
       <c r="U47" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V47" s="1">
         <v>0</v>
@@ -9078,11 +8911,11 @@
         <v>0.0</v>
       </c>
       <c r="AB47">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -9105,15 +8938,11 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L48" s="2"/>
       <c r="M48" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="1">
         <v>0</v>
       </c>
@@ -9129,7 +8958,7 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V48" s="1">
         <v>0</v>
@@ -9146,11 +8975,11 @@
         <v>0.0</v>
       </c>
       <c r="AB48">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -9173,15 +9002,11 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L49" s="2"/>
       <c r="M49" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N49" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="1">
         <v>0</v>
       </c>
@@ -9197,7 +9022,7 @@
         <v>0.0</v>
       </c>
       <c r="U49" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V49" s="1">
         <v>0</v>
@@ -9214,11 +9039,11 @@
         <v>0.0</v>
       </c>
       <c r="AB49">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -9241,15 +9066,11 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L50" s="2"/>
       <c r="M50" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="1">
         <v>0</v>
       </c>
@@ -9265,7 +9086,7 @@
         <v>0.0</v>
       </c>
       <c r="U50" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V50" s="1">
         <v>0</v>
@@ -9282,11 +9103,11 @@
         <v>0.0</v>
       </c>
       <c r="AB50">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -9309,15 +9130,11 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L51" s="2"/>
       <c r="M51" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="1">
         <v>0</v>
       </c>
@@ -9333,7 +9150,7 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V51" s="1">
         <v>0</v>
@@ -9350,11 +9167,11 @@
         <v>0.0</v>
       </c>
       <c r="AB51">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9377,15 +9194,11 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L52" s="2"/>
       <c r="M52" s="1">
-        <v>-240000.0</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="1">
         <v>0</v>
       </c>
@@ -9401,7 +9214,7 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="6">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="V52" s="1">
         <v>0</v>
@@ -9418,11 +9231,11 @@
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>240000.0</v>
+        <v>480000.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9433,7 +9246,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
@@ -9445,15 +9258,11 @@
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
-      <c r="L53" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="L53" s="14"/>
       <c r="M53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="N53" s="14">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N53" s="14"/>
       <c r="O53" s="13">
         <v>0</v>
       </c>
@@ -9490,7 +9299,7 @@
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9501,7 +9310,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
@@ -9513,15 +9322,11 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L54" s="2"/>
       <c r="M54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="1">
         <v>0</v>
       </c>
@@ -9558,7 +9363,7 @@
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9569,7 +9374,7 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
@@ -9581,15 +9386,11 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L55" s="2"/>
       <c r="M55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="1">
         <v>0</v>
       </c>
@@ -9626,7 +9427,7 @@
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9637,7 +9438,7 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
@@ -9649,15 +9450,11 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L56" s="2"/>
       <c r="M56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="1">
         <v>0</v>
       </c>
@@ -9694,7 +9491,7 @@
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9705,7 +9502,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
@@ -9717,15 +9514,11 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
-      <c r="L57" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="L57" s="14"/>
       <c r="M57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="N57" s="14">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N57" s="14"/>
       <c r="O57" s="13">
         <v>0</v>
       </c>
@@ -9762,7 +9555,7 @@
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9773,7 +9566,7 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
@@ -9785,15 +9578,11 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L58" s="2"/>
       <c r="M58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="1">
         <v>0</v>
       </c>
@@ -9830,7 +9619,7 @@
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9841,7 +9630,7 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
@@ -9853,15 +9642,11 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L59" s="2"/>
       <c r="M59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="1">
         <v>0</v>
       </c>
@@ -9898,7 +9683,7 @@
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9909,7 +9694,7 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
@@ -9921,15 +9706,11 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L60" s="2"/>
       <c r="M60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N60" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="1">
         <v>0</v>
       </c>
@@ -9966,7 +9747,7 @@
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9977,7 +9758,7 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>344286.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
@@ -9989,15 +9770,11 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L61" s="2"/>
       <c r="M61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N61" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="1">
         <v>0</v>
       </c>
@@ -10034,7 +9811,7 @@
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -10045,7 +9822,7 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
@@ -10057,15 +9834,11 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L62" s="2"/>
       <c r="M62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N62" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="1">
         <v>0</v>
       </c>
@@ -10102,7 +9875,7 @@
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -10113,7 +9886,7 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>344286.0</v>
+        <v>102858.0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
@@ -10125,15 +9898,11 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L63" s="2"/>
       <c r="M63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N63" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="1">
         <v>0</v>
       </c>
@@ -10170,7 +9939,7 @@
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10181,7 +9950,7 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
@@ -10193,15 +9962,11 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L64" s="2"/>
       <c r="M64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N64" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="1">
         <v>0</v>
       </c>
@@ -10238,7 +10003,7 @@
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10249,7 +10014,7 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>344286.0</v>
+        <v>102858.0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
@@ -10261,15 +10026,11 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L65" s="2"/>
       <c r="M65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N65" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="1">
         <v>0</v>
       </c>
@@ -10306,7 +10067,7 @@
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -10317,7 +10078,7 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
@@ -10329,15 +10090,11 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L66" s="2"/>
       <c r="M66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N66" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="1">
         <v>0</v>
       </c>
@@ -10374,7 +10131,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10397,15 +10154,11 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L67" s="2"/>
       <c r="M67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N67" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="1">
         <v>0</v>
       </c>
@@ -10442,7 +10195,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10465,15 +10218,11 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L68" s="2"/>
       <c r="M68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="1">
         <v>0</v>
       </c>
@@ -10510,7 +10259,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10533,15 +10282,11 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L69" s="2"/>
       <c r="M69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N69" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="1">
         <v>0</v>
       </c>
@@ -10578,7 +10323,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10601,15 +10346,11 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L70" s="2"/>
       <c r="M70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N70" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="1">
         <v>0</v>
       </c>
@@ -10646,7 +10387,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10669,15 +10410,11 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="L71" s="2"/>
       <c r="M71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N71" s="2">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="1">
         <v>0</v>
       </c>
@@ -10714,7 +10451,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10737,15 +10474,11 @@
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="16">
-        <v>0.5</v>
-      </c>
+      <c r="L72" s="16"/>
       <c r="M72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N72" s="16">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N72" s="16"/>
       <c r="O72" s="5">
         <v>0</v>
       </c>
@@ -10782,7 +10515,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -11068,7 +10801,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -11076,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -11088,7 +10821,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -11100,7 +10833,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -11239,23 +10972,23 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>788000</v>
+        <v>1104000</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>630400.0</v>
+        <v>883200.0</v>
       </c>
       <c r="S6" s="2">
         <v>0.01</v>
       </c>
       <c r="T6" s="1">
-        <v>6304.0</v>
+        <v>8832.0</v>
       </c>
       <c r="U6" s="6">
-        <v>-6304.0</v>
+        <v>-8832.0</v>
       </c>
       <c r="V6" s="1">
-        <v>788000</v>
+        <v>1104000</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
@@ -11269,11 +11002,11 @@
         <v>0.0</v>
       </c>
       <c r="AB6">
-        <v>31520.0</v>
+        <v>44160.0</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -11305,23 +11038,23 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>1076000</v>
+        <v>1128000</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>860800.0</v>
+        <v>902400.0</v>
       </c>
       <c r="S7" s="2">
         <v>0.01</v>
       </c>
       <c r="T7" s="1">
-        <v>8608.0</v>
+        <v>9024.0</v>
       </c>
       <c r="U7" s="6">
-        <v>-8608.0</v>
+        <v>-9024.0</v>
       </c>
       <c r="V7" s="1">
-        <v>1076000</v>
+        <v>1128000</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
@@ -11335,11 +11068,11 @@
         <v>0.0</v>
       </c>
       <c r="AB7">
-        <v>43040.0</v>
+        <v>45120.0</v>
       </c>
       <c r="AC7" s="2"/>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -11371,23 +11104,23 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>1364000</v>
+        <v>1152000</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>1091200.0</v>
+        <v>921600.0</v>
       </c>
       <c r="S8" s="2">
         <v>0.01</v>
       </c>
       <c r="T8" s="1">
-        <v>10912.0</v>
+        <v>9216.0</v>
       </c>
       <c r="U8" s="6">
-        <v>-10912.0</v>
+        <v>-9216.0</v>
       </c>
       <c r="V8" s="1">
-        <v>1364000</v>
+        <v>1152000</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
@@ -11401,11 +11134,11 @@
         <v>0.0</v>
       </c>
       <c r="AB8">
-        <v>54560.0</v>
+        <v>46080.0</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -11437,23 +11170,23 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>1652000</v>
+        <v>1176000</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>1321600.0</v>
+        <v>940800.0</v>
       </c>
       <c r="S9" s="2">
         <v>0.01</v>
       </c>
       <c r="T9" s="1">
-        <v>13216.0</v>
+        <v>9408.0</v>
       </c>
       <c r="U9" s="6">
-        <v>-13216.0</v>
+        <v>-9408.0</v>
       </c>
       <c r="V9" s="1">
-        <v>1652000</v>
+        <v>1176000</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
@@ -11467,11 +11200,11 @@
         <v>0.0</v>
       </c>
       <c r="AB9">
-        <v>66080.0</v>
+        <v>47040.0</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -11503,23 +11236,23 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>1940000</v>
+        <v>1200000</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>1552000.0</v>
+        <v>960000.0</v>
       </c>
       <c r="S10" s="2">
         <v>0.01</v>
       </c>
       <c r="T10" s="1">
-        <v>15520.0</v>
+        <v>9600.0</v>
       </c>
       <c r="U10" s="6">
-        <v>-15520.0</v>
+        <v>-9600.0</v>
       </c>
       <c r="V10" s="1">
-        <v>1940000</v>
+        <v>1200000</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
@@ -11533,11 +11266,11 @@
         <v>0.0</v>
       </c>
       <c r="AB10">
-        <v>77600.0</v>
+        <v>48000.0</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -11569,23 +11302,23 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>2228000</v>
+        <v>1224000</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>1782400.0</v>
+        <v>979200.0</v>
       </c>
       <c r="S11" s="2">
         <v>0.01</v>
       </c>
       <c r="T11" s="1">
-        <v>17824.0</v>
+        <v>9792.0</v>
       </c>
       <c r="U11" s="6">
-        <v>-17824.0</v>
+        <v>-9792.0</v>
       </c>
       <c r="V11" s="1">
-        <v>2228000</v>
+        <v>1224000</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
@@ -11599,11 +11332,11 @@
         <v>0.0</v>
       </c>
       <c r="AB11">
-        <v>89120.0</v>
+        <v>48960.0</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -11635,23 +11368,23 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>2516000</v>
+        <v>1248000</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>2012800.0</v>
+        <v>998400.0</v>
       </c>
       <c r="S12" s="2">
         <v>0.01</v>
       </c>
       <c r="T12" s="1">
-        <v>20128.0</v>
+        <v>9984.0</v>
       </c>
       <c r="U12" s="6">
-        <v>-20128.0</v>
+        <v>-9984.0</v>
       </c>
       <c r="V12" s="1">
-        <v>2516000</v>
+        <v>1248000</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
@@ -11665,11 +11398,11 @@
         <v>0.0</v>
       </c>
       <c r="AB12">
-        <v>100640.0</v>
+        <v>49920.0</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -11701,23 +11434,23 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>2804000</v>
+        <v>1272000</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>2243200.0</v>
+        <v>1017600.0</v>
       </c>
       <c r="S13" s="2">
         <v>0.01</v>
       </c>
       <c r="T13" s="1">
-        <v>22432.0</v>
+        <v>10176.0</v>
       </c>
       <c r="U13" s="6">
-        <v>-22432.0</v>
+        <v>-10176.0</v>
       </c>
       <c r="V13" s="1">
-        <v>2804000</v>
+        <v>1272000</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
@@ -11731,11 +11464,11 @@
         <v>0.0</v>
       </c>
       <c r="AB13">
-        <v>112160.0</v>
+        <v>50880.0</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -11767,23 +11500,23 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>3092000</v>
+        <v>1296000</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>2473600.0</v>
+        <v>1036800.0</v>
       </c>
       <c r="S14" s="2">
         <v>0.01</v>
       </c>
       <c r="T14" s="1">
-        <v>24736.0</v>
+        <v>10368.0</v>
       </c>
       <c r="U14" s="6">
-        <v>-24736.0</v>
+        <v>-10368.0</v>
       </c>
       <c r="V14" s="1">
-        <v>3092000</v>
+        <v>1296000</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
@@ -11797,11 +11530,11 @@
         <v>0.0</v>
       </c>
       <c r="AB14">
-        <v>123680.0</v>
+        <v>51840.0</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -11833,23 +11566,23 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>3380000</v>
+        <v>1320000</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>2704000.0</v>
+        <v>1056000.0</v>
       </c>
       <c r="S15" s="2">
         <v>0.01</v>
       </c>
       <c r="T15" s="1">
-        <v>27040.0</v>
+        <v>10560.0</v>
       </c>
       <c r="U15" s="6">
-        <v>-27040.0</v>
+        <v>-10560.0</v>
       </c>
       <c r="V15" s="1">
-        <v>3380000</v>
+        <v>1320000</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
@@ -11863,11 +11596,11 @@
         <v>0.0</v>
       </c>
       <c r="AB15">
-        <v>135200.0</v>
+        <v>52800.0</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -11899,23 +11632,23 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>3668000</v>
+        <v>1344000</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>2934400.0</v>
+        <v>1075200.0</v>
       </c>
       <c r="S16" s="2">
         <v>0.01</v>
       </c>
       <c r="T16" s="1">
-        <v>29344.0</v>
+        <v>10752.0</v>
       </c>
       <c r="U16" s="6">
-        <v>-29344.0</v>
+        <v>-10752.0</v>
       </c>
       <c r="V16" s="1">
-        <v>3668000</v>
+        <v>1344000</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
@@ -11929,11 +11662,11 @@
         <v>0.0</v>
       </c>
       <c r="AB16">
-        <v>146720.0</v>
+        <v>53760.0</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -11965,23 +11698,23 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>3956000</v>
+        <v>1368000</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>3164800.0</v>
+        <v>1094400.0</v>
       </c>
       <c r="S17" s="2">
         <v>0.01</v>
       </c>
       <c r="T17" s="1">
-        <v>31648.0</v>
+        <v>10944.0</v>
       </c>
       <c r="U17" s="6">
-        <v>-31648.0</v>
+        <v>-10944.0</v>
       </c>
       <c r="V17" s="1">
-        <v>3956000</v>
+        <v>1368000</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
@@ -11995,11 +11728,11 @@
         <v>0.0</v>
       </c>
       <c r="AB17">
-        <v>158240.0</v>
+        <v>54720.0</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -12031,23 +11764,23 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>4244000</v>
+        <v>1392000</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>3395200.0</v>
+        <v>1113600.0</v>
       </c>
       <c r="S18" s="2">
         <v>0.01</v>
       </c>
       <c r="T18" s="1">
-        <v>33952.0</v>
+        <v>11136.0</v>
       </c>
       <c r="U18" s="6">
-        <v>-33952.0</v>
+        <v>-11136.0</v>
       </c>
       <c r="V18" s="1">
-        <v>4244000</v>
+        <v>1392000</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
@@ -12061,11 +11794,11 @@
         <v>0.0</v>
       </c>
       <c r="AB18">
-        <v>169760.0</v>
+        <v>55680.0</v>
       </c>
       <c r="AC18" s="2"/>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -12097,23 +11830,23 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>4532000</v>
+        <v>1416000</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>3625600.0</v>
+        <v>1132800.0</v>
       </c>
       <c r="S19" s="2">
         <v>0.01</v>
       </c>
       <c r="T19" s="1">
-        <v>36256.0</v>
+        <v>11328.0</v>
       </c>
       <c r="U19" s="6">
-        <v>-36256.0</v>
+        <v>-11328.0</v>
       </c>
       <c r="V19" s="1">
-        <v>4532000</v>
+        <v>1416000</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
@@ -12127,11 +11860,11 @@
         <v>0.0</v>
       </c>
       <c r="AB19">
-        <v>181280.0</v>
+        <v>56640.0</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -12163,23 +11896,23 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>4820000</v>
+        <v>1440000</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>3856000.0</v>
+        <v>1152000.0</v>
       </c>
       <c r="S20" s="2">
         <v>0.01</v>
       </c>
       <c r="T20" s="1">
-        <v>38560.0</v>
+        <v>11520.0</v>
       </c>
       <c r="U20" s="6">
-        <v>-38560.0</v>
+        <v>-11520.0</v>
       </c>
       <c r="V20" s="1">
-        <v>4820000</v>
+        <v>1440000</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
@@ -12193,11 +11926,11 @@
         <v>0.0</v>
       </c>
       <c r="AB20">
-        <v>192800.0</v>
+        <v>57600.0</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -12261,7 +11994,7 @@
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -12325,7 +12058,7 @@
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -12389,7 +12122,7 @@
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -12453,7 +12186,7 @@
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -12517,7 +12250,7 @@
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -12581,7 +12314,7 @@
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -12645,7 +12378,7 @@
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -12709,7 +12442,7 @@
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -12773,7 +12506,7 @@
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -12837,7 +12570,7 @@
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -12901,7 +12634,7 @@
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -12965,7 +12698,7 @@
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -13029,7 +12762,7 @@
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -13093,7 +12826,7 @@
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -13157,7 +12890,7 @@
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -13221,7 +12954,7 @@
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -13285,7 +13018,7 @@
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -13349,7 +13082,7 @@
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -13413,7 +13146,7 @@
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -13477,7 +13210,7 @@
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -13541,7 +13274,7 @@
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -13605,7 +13338,7 @@
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -13669,7 +13402,7 @@
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -13733,7 +13466,7 @@
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -13797,7 +13530,7 @@
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -13861,7 +13594,7 @@
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -13925,7 +13658,7 @@
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -13989,7 +13722,7 @@
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -14053,7 +13786,7 @@
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -14117,7 +13850,7 @@
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -14181,7 +13914,7 @@
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -14213,21 +13946,23 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>0</v>
+        <v>1080000</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S52" s="2"/>
+        <v>864000.0</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0.01</v>
+      </c>
       <c r="T52" s="1">
-        <v>0.0</v>
+        <v>8640.0</v>
       </c>
       <c r="U52" s="6">
-        <v>0.0</v>
+        <v>-8640.0</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1080000</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
@@ -14241,11 +13976,11 @@
         <v>0.0</v>
       </c>
       <c r="AB52">
-        <v>0.0</v>
+        <v>43200.0</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -14277,23 +14012,23 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>4475714.0</v>
+        <v>1337143.0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>3580571.2</v>
+        <v>1069714.4</v>
       </c>
       <c r="S53" s="14">
         <v>0.01</v>
       </c>
       <c r="T53" s="13">
-        <v>35805.712</v>
+        <v>10697.144</v>
       </c>
       <c r="U53" s="13">
-        <v>-35805.712</v>
+        <v>-10697.144</v>
       </c>
       <c r="V53" s="13">
-        <v>4475714.0</v>
+        <v>1337143.0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
@@ -14307,11 +14042,11 @@
         <v>0.0</v>
       </c>
       <c r="AB53" s="3">
-        <v>179029.0</v>
+        <v>53486.0</v>
       </c>
       <c r="AC53" s="14"/>
       <c r="AD53" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -14343,23 +14078,23 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>4131428.0</v>
+        <v>1234286.0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>3305142.4</v>
+        <v>987428.8</v>
       </c>
       <c r="S54" s="2">
         <v>0.01</v>
       </c>
       <c r="T54" s="1">
-        <v>33051.424</v>
+        <v>9874.288</v>
       </c>
       <c r="U54" s="6">
-        <v>-33051.424</v>
+        <v>-9874.288</v>
       </c>
       <c r="V54" s="1">
-        <v>4131428.0</v>
+        <v>1234286.0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
@@ -14373,11 +14108,11 @@
         <v>0.0</v>
       </c>
       <c r="AB54">
-        <v>165257.0</v>
+        <v>49371.0</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -14409,23 +14144,23 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>3787142.0</v>
+        <v>1131429.0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>3029713.6</v>
+        <v>905143.2</v>
       </c>
       <c r="S55" s="2">
         <v>0.01</v>
       </c>
       <c r="T55" s="1">
-        <v>30297.136</v>
+        <v>9051.432</v>
       </c>
       <c r="U55" s="6">
-        <v>-30297.136</v>
+        <v>-9051.432</v>
       </c>
       <c r="V55" s="1">
-        <v>3787142.0</v>
+        <v>1131429.0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
@@ -14439,11 +14174,11 @@
         <v>0.0</v>
       </c>
       <c r="AB55">
-        <v>151486.0</v>
+        <v>45257.0</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -14475,23 +14210,23 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>3442856.0</v>
+        <v>1028572.0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>2754284.8</v>
+        <v>822857.6</v>
       </c>
       <c r="S56" s="2">
         <v>0.01</v>
       </c>
       <c r="T56" s="1">
-        <v>27542.848</v>
+        <v>8228.576</v>
       </c>
       <c r="U56" s="6">
-        <v>-27542.848</v>
+        <v>-8228.576</v>
       </c>
       <c r="V56" s="1">
-        <v>3442856.0</v>
+        <v>1028572.0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
@@ -14505,11 +14240,11 @@
         <v>0.0</v>
       </c>
       <c r="AB56">
-        <v>137714.0</v>
+        <v>41143.0</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -14541,23 +14276,23 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>3098570.0</v>
+        <v>925715.0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>2478856.0</v>
+        <v>740572.0</v>
       </c>
       <c r="S57" s="14">
         <v>0.01</v>
       </c>
       <c r="T57" s="13">
-        <v>24788.56</v>
+        <v>7405.72</v>
       </c>
       <c r="U57" s="13">
-        <v>-24788.56</v>
+        <v>-7405.72</v>
       </c>
       <c r="V57" s="13">
-        <v>3098570.0</v>
+        <v>925715.0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
@@ -14571,11 +14306,11 @@
         <v>0.0</v>
       </c>
       <c r="AB57" s="3">
-        <v>123943.0</v>
+        <v>37029.0</v>
       </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -14607,23 +14342,23 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>2754284.0</v>
+        <v>822858.0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>2203427.2</v>
+        <v>658286.4</v>
       </c>
       <c r="S58" s="2">
         <v>0.01</v>
       </c>
       <c r="T58" s="1">
-        <v>22034.272</v>
+        <v>6582.864</v>
       </c>
       <c r="U58" s="6">
-        <v>-22034.272</v>
+        <v>-6582.864</v>
       </c>
       <c r="V58" s="1">
-        <v>2754284.0</v>
+        <v>822858.0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
@@ -14637,11 +14372,11 @@
         <v>0.0</v>
       </c>
       <c r="AB58">
-        <v>110171.0</v>
+        <v>32914.0</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -14673,23 +14408,23 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>2409998.0</v>
+        <v>720001.0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>1927998.4</v>
+        <v>576000.8</v>
       </c>
       <c r="S59" s="2">
         <v>0.01</v>
       </c>
       <c r="T59" s="1">
-        <v>19279.984</v>
+        <v>5760.008</v>
       </c>
       <c r="U59" s="6">
-        <v>-19279.984</v>
+        <v>-5760.008</v>
       </c>
       <c r="V59" s="1">
-        <v>2409998.0</v>
+        <v>720001.0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
@@ -14703,11 +14438,11 @@
         <v>0.0</v>
       </c>
       <c r="AB59">
-        <v>96400.0</v>
+        <v>28800.0</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -14739,23 +14474,23 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>2065713.0</v>
+        <v>617144.0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>1652570.4</v>
+        <v>493715.2</v>
       </c>
       <c r="S60" s="2">
         <v>0.01</v>
       </c>
       <c r="T60" s="1">
-        <v>16525.704</v>
+        <v>4937.152</v>
       </c>
       <c r="U60" s="6">
-        <v>-16525.704</v>
+        <v>-4937.152</v>
       </c>
       <c r="V60" s="1">
-        <v>2065713.0</v>
+        <v>617144.0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
@@ -14769,11 +14504,11 @@
         <v>0.0</v>
       </c>
       <c r="AB60">
-        <v>82629.0</v>
+        <v>24686.0</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -14805,23 +14540,23 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>1721427.0</v>
+        <v>514287.0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>1377141.6</v>
+        <v>411429.6</v>
       </c>
       <c r="S61" s="2">
         <v>0.01</v>
       </c>
       <c r="T61" s="1">
-        <v>13771.416</v>
+        <v>4114.296</v>
       </c>
       <c r="U61" s="6">
-        <v>-13771.416</v>
+        <v>-4114.296</v>
       </c>
       <c r="V61" s="1">
-        <v>1721427.0</v>
+        <v>514287.0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
@@ -14835,11 +14570,11 @@
         <v>0.0</v>
       </c>
       <c r="AB61">
-        <v>68857.0</v>
+        <v>20571.0</v>
       </c>
       <c r="AC61" s="2"/>
       <c r="AD61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -14871,23 +14606,23 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>1377142.0</v>
+        <v>411430.0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>1101713.6</v>
+        <v>329144.0</v>
       </c>
       <c r="S62" s="2">
         <v>0.01</v>
       </c>
       <c r="T62" s="1">
-        <v>11017.136</v>
+        <v>3291.44</v>
       </c>
       <c r="U62" s="6">
-        <v>-11017.136</v>
+        <v>-3291.44</v>
       </c>
       <c r="V62" s="1">
-        <v>1377142.0</v>
+        <v>411430.0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
@@ -14901,11 +14636,11 @@
         <v>0.0</v>
       </c>
       <c r="AB62">
-        <v>55086.0</v>
+        <v>16457.0</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -14937,23 +14672,23 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>1032856.0</v>
+        <v>308572.0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>826284.8</v>
+        <v>246857.6</v>
       </c>
       <c r="S63" s="2">
         <v>0.01</v>
       </c>
       <c r="T63" s="1">
-        <v>8262.848</v>
+        <v>2468.576</v>
       </c>
       <c r="U63" s="6">
-        <v>-8262.848</v>
+        <v>-2468.576</v>
       </c>
       <c r="V63" s="1">
-        <v>1032856.0</v>
+        <v>308572.0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
@@ -14967,11 +14702,11 @@
         <v>0.0</v>
       </c>
       <c r="AB63">
-        <v>41314.0</v>
+        <v>12343.0</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -15003,23 +14738,23 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>688571.0</v>
+        <v>205715.0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>550856.8</v>
+        <v>164572.0</v>
       </c>
       <c r="S64" s="2">
         <v>0.01</v>
       </c>
       <c r="T64" s="1">
-        <v>5508.568</v>
+        <v>1645.72</v>
       </c>
       <c r="U64" s="6">
-        <v>-5508.568</v>
+        <v>-1645.72</v>
       </c>
       <c r="V64" s="1">
-        <v>688571.0</v>
+        <v>205715.0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
@@ -15033,11 +14768,11 @@
         <v>0.0</v>
       </c>
       <c r="AB64">
-        <v>27543.0</v>
+        <v>8229.0</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -15069,23 +14804,23 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>275428.0</v>
+        <v>82285.6</v>
       </c>
       <c r="S65" s="2">
         <v>0.01</v>
       </c>
       <c r="T65" s="1">
-        <v>2754.28</v>
+        <v>822.856</v>
       </c>
       <c r="U65" s="6">
-        <v>-2754.28</v>
+        <v>-822.856</v>
       </c>
       <c r="V65" s="1">
-        <v>344285.0</v>
+        <v>102857.0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
@@ -15099,11 +14834,11 @@
         <v>0.0</v>
       </c>
       <c r="AB65">
-        <v>13771.0</v>
+        <v>4114.0</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -15167,7 +14902,7 @@
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -15231,7 +14966,7 @@
       </c>
       <c r="AC67" s="2"/>
       <c r="AD67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -15295,7 +15030,7 @@
       </c>
       <c r="AC68" s="2"/>
       <c r="AD68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -15359,7 +15094,7 @@
       </c>
       <c r="AC69" s="2"/>
       <c r="AD69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -15423,7 +15158,7 @@
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -15487,7 +15222,7 @@
       </c>
       <c r="AC71" s="2"/>
       <c r="AD71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -15551,7 +15286,7 @@
       </c>
       <c r="AC72" s="16"/>
       <c r="AD72" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -15809,10 +15544,10 @@
   <sheetData>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -15973,6 +15708,12 @@
     <row r="37" spans="1:3">
       <c r="A37">
         <v>2022</v>
+      </c>
+      <c r="B37">
+        <v>100.0</v>
+      </c>
+      <c r="C37">
+        <v>100.0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
